--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Job Descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*(GANTT!$F1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*(GANTT!$F1&gt;0)</definedName>
+    <definedName name="Actual">(PeriodInActual*(GANTT!$G1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(GANTT!$G1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">(GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$F1,GANTT!$F1+GANTT!$G1)*(GANTT!$F1&gt;0))*((GANTT!A$8&lt;(INT(GANTT!$F1+GANTT!$G1*GANTT!$H1)))+(GANTT!A$8=GANTT!$F1))*(GANTT!$H1&gt;0)</definedName>
-    <definedName name="period_selected">GANTT!$O$3</definedName>
-    <definedName name="PeriodInActual">GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$F1,GANTT!$F1+GANTT!$G1-1)</definedName>
-    <definedName name="PeriodInPlan">GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$D1,GANTT!$D1+GANTT!$E1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*(GANTT!$D1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">(GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$G1,GANTT!$G1+GANTT!$H1)*(GANTT!$G1&gt;0))*((GANTT!A$8&lt;(INT(GANTT!$G1+GANTT!$H1*GANTT!$I1)))+(GANTT!A$8=GANTT!$G1))*(GANTT!$I1&gt;0)</definedName>
+    <definedName name="period_selected">GANTT!$P$3</definedName>
+    <definedName name="PeriodInActual">GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$G1,GANTT!$G1+GANTT!$H1-1)</definedName>
+    <definedName name="PeriodInPlan">GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$E1,GANTT!$E1+GANTT!$F1-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*(GANTT!$E1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Plan</t>
   </si>
@@ -68,84 +68,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -270,6 +192,192 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Requirements Documentation</t>
+  </si>
+  <si>
+    <t>Design Document</t>
+  </si>
+  <si>
+    <t>Adriano, Mate</t>
+  </si>
+  <si>
+    <t>Image extraction</t>
+  </si>
+  <si>
+    <t>Image packaging and downloading</t>
+  </si>
+  <si>
+    <t>Duplicate text detection</t>
+  </si>
+  <si>
+    <t>Keyword search</t>
+  </si>
+  <si>
+    <t>Crawl Date extraction</t>
+  </si>
+  <si>
+    <t>Graph visualization</t>
+  </si>
+  <si>
+    <t>Term frequency graph</t>
+  </si>
+  <si>
+    <t>MySQL Database</t>
+  </si>
+  <si>
+    <t>Front End App Shell</t>
+  </si>
+  <si>
+    <t>Backend App Shell</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>File Selection functionality</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>High Level Architecture Design</t>
+  </si>
+  <si>
+    <t>Project Management Plan V1</t>
+  </si>
+  <si>
+    <t>Storyboarding</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Cheng, Mate</t>
+  </si>
+  <si>
+    <t>Mate, Kevin</t>
+  </si>
+  <si>
+    <t>Detailed System Architecture</t>
+  </si>
+  <si>
+    <t>UML Class Diagram</t>
+  </si>
+  <si>
+    <t>UML Sequence Diagram</t>
+  </si>
+  <si>
+    <t>UML Component Diagram</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Finalize UI Design</t>
+  </si>
+  <si>
+    <t>Project Management Plan V2</t>
+  </si>
+  <si>
+    <t>MVP Documentation</t>
+  </si>
+  <si>
+    <t>Cybera Server Setup</t>
+  </si>
+  <si>
+    <t>Mate, Cheng</t>
+  </si>
+  <si>
+    <t>HDFS Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term frequency (tf-idf) </t>
+  </si>
+  <si>
+    <t>Test - US1</t>
+  </si>
+  <si>
+    <t>Test - US2</t>
+  </si>
+  <si>
+    <t>Test - US3</t>
+  </si>
+  <si>
+    <t>Test - US4</t>
+  </si>
+  <si>
+    <t>Test - US5</t>
+  </si>
+  <si>
+    <t>Test - US6</t>
+  </si>
+  <si>
+    <t>Test - US7</t>
+  </si>
+  <si>
+    <t>Test - US8</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Adriano, Kevin</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,2,5,6</t>
+  </si>
+  <si>
+    <t>1,2,4,6</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>6,7,8,10</t>
+  </si>
+  <si>
+    <t>6,7,8,11</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>1,6,9,12</t>
+  </si>
+  <si>
+    <t>Test - US9</t>
+  </si>
+  <si>
+    <t>Test - US10</t>
+  </si>
+  <si>
+    <t>Test - US11</t>
+  </si>
+  <si>
+    <t>Test - US12</t>
+  </si>
+  <si>
+    <t>27,28</t>
+  </si>
+  <si>
+    <t>29,31</t>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
   </si>
 </sst>
 </file>
@@ -565,7 +673,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,9 +728,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,6 +770,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
@@ -679,7 +790,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -822,86 +933,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -934,13 +965,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
+          <xdr:col>16</xdr:col>
           <xdr:colOff>63500</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>254000</xdr:rowOff>
@@ -1210,156 +1241,165 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:CF36"/>
+  <dimension ref="A2:CG50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10" max="15" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="43" width="2.6640625" style="1"/>
-    <col min="78" max="83" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="44" width="2.6640625" style="1"/>
+    <col min="79" max="84" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:84" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="2:84" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="J3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="8"/>
+    <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:85" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="K3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="9">
+      <c r="O3" s="8"/>
+      <c r="P3" s="9">
         <v>1</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="19" t="s">
+      <c r="Q3" s="8"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="AG3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN3"/>
+      <c r="AH3"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
-    </row>
-    <row r="4" spans="2:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="BQ4" s="1"/>
+      <c r="AR3"/>
+    </row>
+    <row r="4" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
-    </row>
-    <row r="5" spans="2:84" x14ac:dyDescent="0.25">
-      <c r="BQ5" s="1"/>
+      <c r="BV4" s="1"/>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
-    </row>
-    <row r="6" spans="2:84" ht="15" x14ac:dyDescent="0.2">
+      <c r="BT5" s="1"/>
+    </row>
+    <row r="6" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="BQ6" s="1"/>
+      <c r="L6" s="4"/>
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
-    </row>
-    <row r="7" spans="2:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BT6" s="1"/>
+    </row>
+    <row r="7" spans="1:85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1368,904 +1408,1696 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="22">
         <v>6</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>18</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>20</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>21</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>22</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>23</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>24</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>25</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>26</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <v>27</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AL8" s="22">
         <v>28</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>29</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>30</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>31</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>32</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AQ8" s="3">
         <v>33</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AR8" s="3">
         <v>34</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AS8" s="3">
         <v>35</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AT8" s="3">
         <v>36</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AU8" s="3">
         <v>37</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AV8" s="3">
         <v>38</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AW8" s="3">
         <v>39</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AX8" s="3">
         <v>40</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AY8" s="3">
         <v>41</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AZ8" s="3">
         <v>42</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="BA8" s="3">
         <v>43</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BB8" s="3">
         <v>44</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BC8" s="3">
         <v>45</v>
       </c>
-      <c r="BC8" s="23">
+      <c r="BD8" s="22">
         <v>46</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BE8" s="3">
         <v>47</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BF8" s="3">
         <v>48</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BG8" s="3">
         <v>49</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BH8" s="3">
         <v>50</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BI8" s="3">
         <v>51</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BJ8" s="3">
         <v>52</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BK8" s="3">
         <v>53</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BL8" s="3">
         <v>54</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BM8" s="3">
         <v>55</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BN8" s="3">
         <v>56</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BO8" s="3">
         <v>57</v>
       </c>
-      <c r="BO8" s="3">
+      <c r="BP8" s="3">
         <v>58</v>
       </c>
-      <c r="BP8" s="3">
+      <c r="BQ8" s="3">
         <v>59</v>
       </c>
-      <c r="BQ8" s="3">
+      <c r="BR8" s="3">
         <v>60</v>
       </c>
-      <c r="BR8" s="3">
+      <c r="BS8" s="3">
         <v>61</v>
       </c>
-      <c r="BS8" s="3">
+      <c r="BT8" s="3">
         <v>62</v>
       </c>
-      <c r="BT8" s="23">
+      <c r="BU8" s="22">
         <v>63</v>
       </c>
-      <c r="BU8" s="3">
+      <c r="BV8" s="3">
         <v>64</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BW8" s="3">
         <v>65</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="BX8" s="3">
         <v>66</v>
       </c>
-      <c r="BX8" s="3">
+      <c r="BY8" s="3">
         <v>67</v>
       </c>
-      <c r="BY8" s="3">
+      <c r="BZ8" s="3">
         <v>68</v>
       </c>
-      <c r="BZ8" s="3">
+      <c r="CA8" s="3">
         <v>69</v>
       </c>
-      <c r="CA8" s="3">
+      <c r="CB8" s="3">
         <v>70</v>
       </c>
-      <c r="CB8" s="3">
+      <c r="CC8" s="3">
         <v>71</v>
       </c>
-      <c r="CC8" s="3">
+      <c r="CD8" s="3">
         <v>72</v>
       </c>
-      <c r="CD8" s="3">
+      <c r="CE8" s="3">
         <v>73</v>
       </c>
-      <c r="CE8" s="23">
+      <c r="CF8" s="22">
         <v>74</v>
       </c>
-      <c r="CF8" s="1"/>
-    </row>
-    <row r="9" spans="2:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="CG8" s="1"/>
+    </row>
+    <row r="9" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="3">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3">
+        <v>24</v>
+      </c>
+      <c r="O9" s="3">
+        <v>25</v>
+      </c>
+      <c r="P9" s="22">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>27</v>
+      </c>
+      <c r="R9" s="3">
+        <v>28</v>
+      </c>
+      <c r="S9" s="3">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3">
+        <v>30</v>
+      </c>
+      <c r="U9" s="3">
+        <v>31</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2</v>
+      </c>
+      <c r="X9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="22">
+        <v>17</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>18</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>19</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>22</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>23</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>24</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>25</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>26</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>27</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>28</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>29</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>31</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="22">
+        <v>4</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>5</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>6</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>7</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>8</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>9</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>10</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>11</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>12</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>13</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>14</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>15</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>16</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>17</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>18</v>
+      </c>
+      <c r="BS9" s="3">
+        <v>19</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>20</v>
+      </c>
+      <c r="BU9" s="22">
+        <v>21</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>22</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>23</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>24</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>25</v>
+      </c>
+      <c r="BZ9" s="3">
+        <v>26</v>
+      </c>
+      <c r="CA9" s="3">
+        <v>27</v>
+      </c>
+      <c r="CB9" s="3">
+        <v>28</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>29</v>
+      </c>
+      <c r="CD9" s="3">
+        <v>30</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="22">
+        <v>2</v>
+      </c>
+      <c r="CG9" s="1"/>
+    </row>
+    <row r="10" spans="1:85" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="BD10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="CF10" s="20"/>
+    </row>
+    <row r="11" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="BD11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="CF11" s="20"/>
+    </row>
+    <row r="12" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="BD12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="CF12" s="20"/>
+    </row>
+    <row r="13" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="BD13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="CF13" s="20"/>
+    </row>
+    <row r="14" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="BD14" s="20"/>
+      <c r="BU14" s="20"/>
+      <c r="CF14" s="20"/>
+    </row>
+    <row r="15" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="16">
+        <v>7</v>
+      </c>
+      <c r="F15" s="16">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="BD15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="CF15" s="20"/>
+    </row>
+    <row r="16" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16">
+        <v>7</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="BD16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="CF16" s="20"/>
+    </row>
+    <row r="17" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16">
+        <v>7</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="BD17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="CF17" s="20"/>
+    </row>
+    <row r="18" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="16">
+        <v>7</v>
+      </c>
+      <c r="F18" s="16">
+        <v>7</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="BD18" s="20"/>
+      <c r="BU18" s="20"/>
+      <c r="CF18" s="20"/>
+    </row>
+    <row r="19" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16">
+        <v>7</v>
+      </c>
+      <c r="F19" s="16">
+        <v>10</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="BD19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="CF19" s="20"/>
+    </row>
+    <row r="20" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="16">
+        <v>7</v>
+      </c>
+      <c r="F20" s="16">
+        <v>10</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="BD20" s="20"/>
+      <c r="BU20" s="20"/>
+      <c r="CF20" s="20"/>
+    </row>
+    <row r="21" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="16">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16">
+        <v>7</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="BD21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="CF21" s="20"/>
+    </row>
+    <row r="22" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="16">
+        <v>21</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="BD22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="CF22" s="20"/>
+    </row>
+    <row r="23" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="16">
+        <v>7</v>
+      </c>
+      <c r="F23" s="16">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="BD23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="CF23" s="20"/>
+    </row>
+    <row r="24" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="16">
+        <v>14</v>
+      </c>
+      <c r="F24" s="16">
+        <v>8</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="BD24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="CF24" s="20"/>
+    </row>
+    <row r="25" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16">
+        <v>14</v>
+      </c>
+      <c r="F25" s="16">
+        <v>8</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="BD25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="CF25" s="20"/>
+    </row>
+    <row r="26" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="16">
+        <v>14</v>
+      </c>
+      <c r="F26" s="16">
+        <v>8</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="BD26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="CF26" s="20"/>
+    </row>
+    <row r="27" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="16">
+        <v>14</v>
+      </c>
+      <c r="F27" s="16">
+        <v>8</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="P27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="BD27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="CF27" s="20"/>
+    </row>
+    <row r="28" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="16">
+        <v>14</v>
+      </c>
+      <c r="F28" s="16">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="BD28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="CF28" s="20"/>
+    </row>
+    <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="16">
+        <v>14</v>
+      </c>
+      <c r="F29" s="16">
+        <v>8</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="BD29" s="20"/>
+      <c r="BU29" s="20"/>
+      <c r="CF29" s="20"/>
+    </row>
+    <row r="30" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16">
+        <v>8</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="BD30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="CF30" s="20"/>
+    </row>
+    <row r="31" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="16">
+        <v>14</v>
+      </c>
+      <c r="F31" s="16">
+        <v>8</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="BD31" s="20"/>
+      <c r="BU31" s="20"/>
+      <c r="CF31" s="20"/>
+    </row>
+    <row r="32" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="16">
+        <v>14</v>
+      </c>
+      <c r="F32" s="16">
+        <v>8</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="P32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="BD32" s="20"/>
+      <c r="BU32" s="20"/>
+      <c r="CF32" s="20"/>
+    </row>
+    <row r="33" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="16">
+        <v>14</v>
+      </c>
+      <c r="F33" s="16">
+        <v>8</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="P33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="BD33" s="20"/>
+      <c r="BU33" s="20"/>
+      <c r="CF33" s="20"/>
+    </row>
+    <row r="34" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="16">
+        <v>14</v>
+      </c>
+      <c r="F34" s="16">
+        <v>8</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="P34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="BD34" s="20"/>
+      <c r="BU34" s="20"/>
+      <c r="CF34" s="20"/>
+    </row>
+    <row r="35" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="16">
+        <v>14</v>
+      </c>
+      <c r="F35" s="16">
+        <v>8</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="P35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="BD35" s="20"/>
+      <c r="BU35" s="20"/>
+      <c r="CF35" s="20"/>
+    </row>
+    <row r="36" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16">
+        <v>7</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16">
+        <v>4</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="BD36" s="20"/>
+      <c r="BU36" s="20"/>
+      <c r="CF36" s="20"/>
+    </row>
+    <row r="37" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="16">
+        <v>7</v>
+      </c>
+      <c r="F37" s="16">
+        <v>4</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="P37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="BD37" s="20"/>
+      <c r="BU37" s="20"/>
+      <c r="CF37" s="20"/>
+    </row>
+    <row r="38" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="3">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="C38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="16">
         <v>22</v>
       </c>
-      <c r="L9" s="3">
-        <v>23</v>
-      </c>
-      <c r="M9" s="3">
-        <v>24</v>
-      </c>
-      <c r="N9" s="3">
-        <v>25</v>
-      </c>
-      <c r="O9" s="23">
-        <v>26</v>
-      </c>
-      <c r="P9" s="3">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>28</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="F38" s="16">
+        <v>53</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="P38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="BD38" s="20"/>
+      <c r="BU38" s="20"/>
+      <c r="CF38" s="20"/>
+    </row>
+    <row r="39" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="3">
-        <v>30</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="E39" s="16">
+        <v>22</v>
+      </c>
+      <c r="F39" s="16">
+        <v>53</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="P39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="BD39" s="20"/>
+      <c r="BU39" s="20"/>
+      <c r="CF39" s="20"/>
+    </row>
+    <row r="40" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>31</v>
       </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>11</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>15</v>
-      </c>
-      <c r="AJ9" s="3">
+      <c r="B40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="16">
+        <v>22</v>
+      </c>
+      <c r="F40" s="16">
+        <v>53</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="P40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="BD40" s="20"/>
+      <c r="BU40" s="20"/>
+      <c r="CF40" s="20"/>
+    </row>
+    <row r="41" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="16">
+        <v>22</v>
+      </c>
+      <c r="F41" s="16">
+        <v>53</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="BD41" s="20"/>
+      <c r="BU41" s="20"/>
+      <c r="CF41" s="20"/>
+    </row>
+    <row r="42" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16">
+        <v>22</v>
+      </c>
+      <c r="F42" s="16">
+        <v>53</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="BD42" s="20"/>
+      <c r="BU42" s="20"/>
+      <c r="CF42" s="20"/>
+    </row>
+    <row r="43" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="16">
+        <v>22</v>
+      </c>
+      <c r="F43" s="16">
+        <v>53</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="P43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="BD43" s="20"/>
+      <c r="BU43" s="20"/>
+      <c r="CF43" s="20"/>
+    </row>
+    <row r="44" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="16">
+        <v>22</v>
+      </c>
+      <c r="F44" s="16">
+        <v>53</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="BD44" s="20"/>
+      <c r="BU44" s="20"/>
+      <c r="CF44" s="20"/>
+    </row>
+    <row r="45" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="16">
+        <v>22</v>
+      </c>
+      <c r="F45" s="16">
+        <v>53</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="P45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="BD45" s="20"/>
+      <c r="BU45" s="20"/>
+      <c r="CF45" s="20"/>
+    </row>
+    <row r="46" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="16">
+        <v>22</v>
+      </c>
+      <c r="F46" s="16">
+        <v>53</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="P46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="BD46" s="20"/>
+      <c r="BU46" s="20"/>
+      <c r="CF46" s="20"/>
+    </row>
+    <row r="47" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="16">
+        <v>22</v>
+      </c>
+      <c r="F47" s="16">
+        <v>53</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="P47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="BD47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="CF47" s="20"/>
+    </row>
+    <row r="48" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="16">
+        <v>22</v>
+      </c>
+      <c r="F48" s="16">
+        <v>53</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17">
+        <v>0</v>
+      </c>
+      <c r="P48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="BD48" s="20"/>
+      <c r="BU48" s="20"/>
+      <c r="CF48" s="20"/>
+    </row>
+    <row r="49" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="16">
+        <v>22</v>
+      </c>
+      <c r="F49" s="16">
+        <v>53</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17">
+        <v>0</v>
+      </c>
+      <c r="P49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="BD49" s="20"/>
+      <c r="BU49" s="20"/>
+      <c r="CF49" s="20"/>
+    </row>
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="P50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AK9" s="23">
+      <c r="AL50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="BD50" t="s">
         <v>18</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="BU50" t="s">
         <v>19</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="CF50" t="s">
         <v>20</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>21</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>22</v>
-      </c>
-      <c r="AQ9" s="3">
-        <v>23</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>24</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>25</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>26</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>27</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>28</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>29</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>30</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>31</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>3</v>
-      </c>
-      <c r="BC9" s="23">
-        <v>4</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>5</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>6</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>7</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>8</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>9</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>10</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>11</v>
-      </c>
-      <c r="BK9" s="3">
-        <v>12</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>13</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>14</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>15</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>16</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>17</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>18</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>19</v>
-      </c>
-      <c r="BS9" s="3">
-        <v>20</v>
-      </c>
-      <c r="BT9" s="23">
-        <v>21</v>
-      </c>
-      <c r="BU9" s="3">
-        <v>22</v>
-      </c>
-      <c r="BV9" s="3">
-        <v>23</v>
-      </c>
-      <c r="BW9" s="3">
-        <v>24</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>25</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>26</v>
-      </c>
-      <c r="BZ9" s="3">
-        <v>27</v>
-      </c>
-      <c r="CA9" s="3">
-        <v>28</v>
-      </c>
-      <c r="CB9" s="3">
-        <v>29</v>
-      </c>
-      <c r="CC9" s="3">
-        <v>30</v>
-      </c>
-      <c r="CD9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CE9" s="23">
-        <v>2</v>
-      </c>
-      <c r="CF9" s="1"/>
-    </row>
-    <row r="10" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="O10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="BC10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="CE10" s="21"/>
-    </row>
-    <row r="11" spans="2:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="O11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="BC11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="CE11" s="21"/>
-    </row>
-    <row r="12" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="O12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="BC12" s="21"/>
-      <c r="BT12" s="21"/>
-      <c r="CE12" s="21"/>
-    </row>
-    <row r="13" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="O13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="BC13" s="21"/>
-      <c r="BT13" s="21"/>
-      <c r="CE13" s="21"/>
-    </row>
-    <row r="14" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="O14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="BC14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="CE14" s="21"/>
-    </row>
-    <row r="15" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="O15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="BC15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="CE15" s="21"/>
-    </row>
-    <row r="16" spans="2:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="O16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="BC16" s="21"/>
-      <c r="BT16" s="21"/>
-      <c r="CE16" s="21"/>
-    </row>
-    <row r="17" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="O17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="BC17" s="21"/>
-      <c r="BT17" s="21"/>
-      <c r="CE17" s="21"/>
-    </row>
-    <row r="18" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="O18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="BC18" s="21"/>
-      <c r="BT18" s="21"/>
-      <c r="CE18" s="21"/>
-    </row>
-    <row r="19" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="O19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="BC19" s="21"/>
-      <c r="BT19" s="21"/>
-      <c r="CE19" s="21"/>
-    </row>
-    <row r="20" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="O20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="BC20" s="21"/>
-      <c r="BT20" s="21"/>
-      <c r="CE20" s="21"/>
-    </row>
-    <row r="21" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="O21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="BC21" s="21"/>
-      <c r="BT21" s="21"/>
-      <c r="CE21" s="21"/>
-    </row>
-    <row r="22" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="O22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="BC22" s="21"/>
-      <c r="BT22" s="21"/>
-      <c r="CE22" s="21"/>
-    </row>
-    <row r="23" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="O23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="BC23" s="21"/>
-      <c r="BT23" s="21"/>
-      <c r="CE23" s="21"/>
-    </row>
-    <row r="24" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="O24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="BC24" s="21"/>
-      <c r="BT24" s="21"/>
-      <c r="CE24" s="21"/>
-    </row>
-    <row r="25" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="O25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="BC25" s="21"/>
-      <c r="BT25" s="21"/>
-      <c r="CE25" s="21"/>
-    </row>
-    <row r="26" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="O26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="BC26" s="21"/>
-      <c r="BT26" s="21"/>
-      <c r="CE26" s="21"/>
-    </row>
-    <row r="27" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="O27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="BC27" s="21"/>
-      <c r="BT27" s="21"/>
-      <c r="CE27" s="21"/>
-    </row>
-    <row r="28" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="O28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="BC28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="CE28" s="21"/>
-    </row>
-    <row r="29" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="O29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="BC29" s="21"/>
-      <c r="BT29" s="21"/>
-      <c r="CE29" s="21"/>
-    </row>
-    <row r="30" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="O30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="BC30" s="21"/>
-      <c r="BT30" s="21"/>
-      <c r="CE30" s="21"/>
-    </row>
-    <row r="31" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="O31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="BC31" s="21"/>
-      <c r="BT31" s="21"/>
-      <c r="CE31" s="21"/>
-    </row>
-    <row r="32" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="O32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="BC32" s="21"/>
-      <c r="BT32" s="21"/>
-      <c r="CE32" s="21"/>
-    </row>
-    <row r="33" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="O33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="BC33" s="21"/>
-      <c r="BT33" s="21"/>
-      <c r="CE33" s="21"/>
-    </row>
-    <row r="34" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="O34" s="24"/>
-      <c r="AK34" s="24"/>
-      <c r="BC34" s="21"/>
-      <c r="BT34" s="21"/>
-      <c r="CE34" s="21"/>
-    </row>
-    <row r="35" spans="2:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="O35" s="24"/>
-      <c r="AK35" s="24"/>
-      <c r="BC35" s="21"/>
-      <c r="BT35" s="21"/>
-      <c r="CE35" s="21"/>
-    </row>
-    <row r="36" spans="2:83" x14ac:dyDescent="0.25">
-      <c r="O36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>45</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
-  <conditionalFormatting sqref="J10:CE35">
+  <conditionalFormatting sqref="K10:CF49">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2282,7 +3114,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="7">
-      <formula>J$8=period_selected</formula>
+      <formula>K$8=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2291,14 +3123,14 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:CE36">
+  <conditionalFormatting sqref="B50:CF50">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CE9">
+  <conditionalFormatting sqref="K8:CF9">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>J$8=period_selected</formula>
+      <formula>K$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2314,13 +3146,13 @@
               <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>15</xdr:col>
+                    <xdr:col>16</xdr:col>
                     <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>254000</xdr:rowOff>
@@ -2353,1046 +3185,1046 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="A2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+      <c r="A3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
     </row>
     <row r="15" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
+      <c r="A18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
+      <c r="A19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
+      <c r="A20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
     </row>
     <row r="21" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
     </row>
     <row r="24" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
     </row>
     <row r="28" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
     </row>
     <row r="29" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
     </row>
     <row r="30" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
     </row>
     <row r="31" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
     </row>
     <row r="32" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
     </row>
     <row r="33" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
     </row>
     <row r="34" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
     </row>
     <row r="35" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>54</v>
+      <c r="A37" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="A53" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>54</v>
+      <c r="A54" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
     </row>
     <row r="62" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
     </row>
     <row r="67" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomarini/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomarini/Desktop/WARC-Portal/_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="27880" windowHeight="17560"/>
+    <workbookView xWindow="940" yWindow="440" windowWidth="27860" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
   <si>
     <t>Plan</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Design Document</t>
   </si>
   <si>
-    <t>Adriano, Mate</t>
-  </si>
-  <si>
     <t>Image extraction</t>
   </si>
   <si>
@@ -227,15 +224,6 @@
     <t>Term frequency graph</t>
   </si>
   <si>
-    <t>MySQL Database</t>
-  </si>
-  <si>
-    <t>Front End App Shell</t>
-  </si>
-  <si>
-    <t>Backend App Shell</t>
-  </si>
-  <si>
     <t>Adriano</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
     <t>Mate</t>
   </si>
   <si>
-    <t>Adriano, Kevin</t>
-  </si>
-  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -378,6 +363,18 @@
   </si>
   <si>
     <t>29,30,31,32</t>
+  </si>
+  <si>
+    <t>Front End App Skeleton</t>
+  </si>
+  <si>
+    <t>Backend App Skeleton</t>
+  </si>
+  <si>
+    <t>MySQL Install</t>
+  </si>
+  <si>
+    <t>Cheng + Adriano</t>
   </si>
 </sst>
 </file>
@@ -731,14 +728,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
@@ -746,17 +737,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,6 +760,18 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1244,14 +1241,14 @@
   <dimension ref="A2:CG50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="7" width="7.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
@@ -1264,26 +1261,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:85" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1323,14 +1320,14 @@
       <c r="AR3"/>
     </row>
     <row r="4" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -1373,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -1424,7 +1421,7 @@
       <c r="O8" s="3">
         <v>5</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="20">
         <v>6</v>
       </c>
       <c r="Q8" s="3">
@@ -1490,7 +1487,7 @@
       <c r="AK8" s="3">
         <v>27</v>
       </c>
-      <c r="AL8" s="22">
+      <c r="AL8" s="20">
         <v>28</v>
       </c>
       <c r="AM8" s="3">
@@ -1544,7 +1541,7 @@
       <c r="BC8" s="3">
         <v>45</v>
       </c>
-      <c r="BD8" s="22">
+      <c r="BD8" s="20">
         <v>46</v>
       </c>
       <c r="BE8" s="3">
@@ -1595,7 +1592,7 @@
       <c r="BT8" s="3">
         <v>62</v>
       </c>
-      <c r="BU8" s="22">
+      <c r="BU8" s="20">
         <v>63</v>
       </c>
       <c r="BV8" s="3">
@@ -1628,23 +1625,23 @@
       <c r="CE8" s="3">
         <v>73</v>
       </c>
-      <c r="CF8" s="22">
+      <c r="CF8" s="20">
         <v>74</v>
       </c>
       <c r="CG8" s="1"/>
     </row>
     <row r="9" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="3">
         <v>21</v>
       </c>
@@ -1660,7 +1657,7 @@
       <c r="O9" s="3">
         <v>25</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="20">
         <v>26</v>
       </c>
       <c r="Q9" s="3">
@@ -1726,7 +1723,7 @@
       <c r="AK9" s="3">
         <v>16</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AL9" s="20">
         <v>17</v>
       </c>
       <c r="AM9" s="3">
@@ -1780,7 +1777,7 @@
       <c r="BC9" s="3">
         <v>3</v>
       </c>
-      <c r="BD9" s="22">
+      <c r="BD9" s="20">
         <v>4</v>
       </c>
       <c r="BE9" s="3">
@@ -1831,7 +1828,7 @@
       <c r="BT9" s="3">
         <v>20</v>
       </c>
-      <c r="BU9" s="22">
+      <c r="BU9" s="20">
         <v>21</v>
       </c>
       <c r="BV9" s="3">
@@ -1864,7 +1861,7 @@
       <c r="CE9" s="3">
         <v>1</v>
       </c>
-      <c r="CF9" s="22">
+      <c r="CF9" s="20">
         <v>2</v>
       </c>
       <c r="CG9" s="1"/>
@@ -1874,11 +1871,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -1895,22 +1892,22 @@
       <c r="I10" s="17">
         <v>0.8</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="BD10" s="20"/>
-      <c r="BU10" s="20"/>
-      <c r="CF10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="BD10" s="19"/>
+      <c r="BU10" s="19"/>
+      <c r="CF10" s="19"/>
     </row>
     <row r="11" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1927,24 +1924,24 @@
       <c r="I11" s="17">
         <v>1</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="BD11" s="20"/>
-      <c r="BU11" s="20"/>
-      <c r="CF11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="BD11" s="19"/>
+      <c r="BU11" s="19"/>
+      <c r="CF11" s="19"/>
     </row>
     <row r="12" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
@@ -1961,11 +1958,11 @@
       <c r="I12" s="17">
         <v>1</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="BD12" s="20"/>
-      <c r="BU12" s="20"/>
-      <c r="CF12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="BD12" s="19"/>
+      <c r="BU12" s="19"/>
+      <c r="CF12" s="19"/>
     </row>
     <row r="13" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1978,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
@@ -1995,22 +1992,22 @@
       <c r="I13" s="17">
         <v>0.8</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="BD13" s="20"/>
-      <c r="BU13" s="20"/>
-      <c r="CF13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="BD13" s="19"/>
+      <c r="BU13" s="19"/>
+      <c r="CF13" s="19"/>
     </row>
     <row r="14" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -2027,131 +2024,131 @@
       <c r="I14" s="17">
         <v>1</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="BD14" s="20"/>
-      <c r="BU14" s="20"/>
-      <c r="CF14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="BD14" s="19"/>
+      <c r="BU14" s="19"/>
+      <c r="CF14" s="19"/>
     </row>
     <row r="15" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F15" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17">
         <v>0</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="BD15" s="20"/>
-      <c r="BU15" s="20"/>
-      <c r="CF15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="BD15" s="19"/>
+      <c r="BU15" s="19"/>
+      <c r="CF15" s="19"/>
     </row>
     <row r="16" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F16" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="P16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="BD16" s="20"/>
-      <c r="BU16" s="20"/>
-      <c r="CF16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="BD16" s="19"/>
+      <c r="BU16" s="19"/>
+      <c r="CF16" s="19"/>
     </row>
     <row r="17" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F17" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="BD17" s="20"/>
-      <c r="BU17" s="20"/>
-      <c r="CF17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="BD17" s="19"/>
+      <c r="BU17" s="19"/>
+      <c r="CF17" s="19"/>
     </row>
     <row r="18" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F18" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17">
         <v>0</v>
       </c>
-      <c r="P18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="BD18" s="20"/>
-      <c r="BU18" s="20"/>
-      <c r="CF18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="BD18" s="19"/>
+      <c r="BU18" s="19"/>
+      <c r="CF18" s="19"/>
     </row>
     <row r="19" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2161,27 +2158,27 @@
         <v>30</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F19" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17">
         <v>0</v>
       </c>
-      <c r="P19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="BD19" s="20"/>
-      <c r="BU19" s="20"/>
-      <c r="CF19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="BD19" s="19"/>
+      <c r="BU19" s="19"/>
+      <c r="CF19" s="19"/>
     </row>
     <row r="20" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2191,73 +2188,73 @@
         <v>31</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F20" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17">
         <v>0</v>
       </c>
-      <c r="P20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="BD20" s="20"/>
-      <c r="BU20" s="20"/>
-      <c r="CF20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="BD20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="CF20" s="19"/>
     </row>
     <row r="21" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F21" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17">
         <v>0</v>
       </c>
-      <c r="P21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="BD21" s="20"/>
-      <c r="BU21" s="20"/>
-      <c r="CF21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="BD21" s="19"/>
+      <c r="BU21" s="19"/>
+      <c r="CF21" s="19"/>
     </row>
     <row r="22" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C22" s="15">
         <v>3</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
@@ -2267,54 +2264,54 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="BD22" s="20"/>
-      <c r="BU22" s="20"/>
-      <c r="CF22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="BD22" s="19"/>
+      <c r="BU22" s="19"/>
+      <c r="CF22" s="19"/>
     </row>
     <row r="23" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>82</v>
+        <v>55</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F23" s="16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="17">
         <v>0</v>
       </c>
-      <c r="P23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="BD23" s="20"/>
-      <c r="BU23" s="20"/>
-      <c r="CF23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="BD23" s="19"/>
+      <c r="BU23" s="19"/>
+      <c r="CF23" s="19"/>
     </row>
     <row r="24" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E24" s="16">
         <v>14</v>
@@ -2327,24 +2324,24 @@
       <c r="I24" s="17">
         <v>0</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="BD24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="CF24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="BD24" s="19"/>
+      <c r="BU24" s="19"/>
+      <c r="CF24" s="19"/>
     </row>
     <row r="25" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E25" s="16">
         <v>14</v>
@@ -2357,24 +2354,24 @@
       <c r="I25" s="17">
         <v>0</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="BD25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="CF25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="BD25" s="19"/>
+      <c r="BU25" s="19"/>
+      <c r="CF25" s="19"/>
     </row>
     <row r="26" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16">
         <v>14</v>
@@ -2387,24 +2384,24 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="BD26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="CF26" s="20"/>
+      <c r="P26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="BD26" s="19"/>
+      <c r="BU26" s="19"/>
+      <c r="CF26" s="19"/>
     </row>
     <row r="27" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" s="16">
         <v>14</v>
@@ -2417,24 +2414,24 @@
       <c r="I27" s="17">
         <v>0</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="BD27" s="20"/>
-      <c r="BU27" s="20"/>
-      <c r="CF27" s="20"/>
+      <c r="P27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="BD27" s="19"/>
+      <c r="BU27" s="19"/>
+      <c r="CF27" s="19"/>
     </row>
     <row r="28" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="16">
         <v>14</v>
@@ -2447,24 +2444,24 @@
       <c r="I28" s="17">
         <v>0</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="BD28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="CF28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="BD28" s="19"/>
+      <c r="BU28" s="19"/>
+      <c r="CF28" s="19"/>
     </row>
     <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E29" s="16">
         <v>14</v>
@@ -2477,24 +2474,24 @@
       <c r="I29" s="17">
         <v>0</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="BD29" s="20"/>
-      <c r="BU29" s="20"/>
-      <c r="CF29" s="20"/>
+      <c r="P29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="BD29" s="19"/>
+      <c r="BU29" s="19"/>
+      <c r="CF29" s="19"/>
     </row>
     <row r="30" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E30" s="16">
         <v>14</v>
@@ -2507,24 +2504,24 @@
       <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="P30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="BD30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="CF30" s="20"/>
+      <c r="P30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="BD30" s="19"/>
+      <c r="BU30" s="19"/>
+      <c r="CF30" s="19"/>
     </row>
     <row r="31" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E31" s="16">
         <v>14</v>
@@ -2537,24 +2534,24 @@
       <c r="I31" s="17">
         <v>0</v>
       </c>
-      <c r="P31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="BD31" s="20"/>
-      <c r="BU31" s="20"/>
-      <c r="CF31" s="20"/>
+      <c r="P31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="BD31" s="19"/>
+      <c r="BU31" s="19"/>
+      <c r="CF31" s="19"/>
     </row>
     <row r="32" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E32" s="16">
         <v>14</v>
@@ -2564,25 +2561,27 @@
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="P32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="BD32" s="20"/>
-      <c r="BU32" s="20"/>
-      <c r="CF32" s="20"/>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="BD32" s="19"/>
+      <c r="BU32" s="19"/>
+      <c r="CF32" s="19"/>
     </row>
     <row r="33" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16">
         <v>14</v>
@@ -2592,25 +2591,27 @@
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="P33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="BD33" s="20"/>
-      <c r="BU33" s="20"/>
-      <c r="CF33" s="20"/>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="AL33" s="21"/>
+      <c r="BD33" s="19"/>
+      <c r="BU33" s="19"/>
+      <c r="CF33" s="19"/>
     </row>
     <row r="34" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E34" s="16">
         <v>14</v>
@@ -2620,25 +2621,27 @@
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="P34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="BD34" s="20"/>
-      <c r="BU34" s="20"/>
-      <c r="CF34" s="20"/>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="BD34" s="19"/>
+      <c r="BU34" s="19"/>
+      <c r="CF34" s="19"/>
     </row>
     <row r="35" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E35" s="16">
         <v>14</v>
@@ -2648,23 +2651,25 @@
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="P35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="BD35" s="20"/>
-      <c r="BU35" s="20"/>
-      <c r="CF35" s="20"/>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="BD35" s="19"/>
+      <c r="BU35" s="19"/>
+      <c r="CF35" s="19"/>
     </row>
     <row r="36" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E36" s="16">
         <v>7</v>
@@ -2679,24 +2684,24 @@
         <v>4</v>
       </c>
       <c r="I36" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="BD36" s="20"/>
-      <c r="BU36" s="20"/>
-      <c r="CF36" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="BD36" s="19"/>
+      <c r="BU36" s="19"/>
+      <c r="CF36" s="19"/>
     </row>
     <row r="37" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E37" s="16">
         <v>7</v>
@@ -2709,24 +2714,24 @@
       <c r="I37" s="17">
         <v>0</v>
       </c>
-      <c r="P37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="BD37" s="20"/>
-      <c r="BU37" s="20"/>
-      <c r="CF37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="BD37" s="19"/>
+      <c r="BU37" s="19"/>
+      <c r="CF37" s="19"/>
     </row>
     <row r="38" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E38" s="16">
         <v>22</v>
@@ -2734,29 +2739,33 @@
       <c r="F38" s="16">
         <v>53</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="16">
+        <v>12</v>
+      </c>
+      <c r="H38" s="16">
+        <v>4</v>
+      </c>
       <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="P38" s="23"/>
-      <c r="AL38" s="23"/>
-      <c r="BD38" s="20"/>
-      <c r="BU38" s="20"/>
-      <c r="CF38" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="BD38" s="19"/>
+      <c r="BU38" s="19"/>
+      <c r="CF38" s="19"/>
     </row>
     <row r="39" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E39" s="16">
         <v>22</v>
@@ -2764,29 +2773,33 @@
       <c r="F39" s="16">
         <v>53</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16">
+        <v>12</v>
+      </c>
+      <c r="H39" s="16">
+        <v>4</v>
+      </c>
       <c r="I39" s="17">
-        <v>0</v>
-      </c>
-      <c r="P39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="BD39" s="20"/>
-      <c r="BU39" s="20"/>
-      <c r="CF39" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="BD39" s="19"/>
+      <c r="BU39" s="19"/>
+      <c r="CF39" s="19"/>
     </row>
     <row r="40" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>31</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E40" s="16">
         <v>22</v>
@@ -2794,26 +2807,30 @@
       <c r="F40" s="16">
         <v>53</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="16">
+        <v>12</v>
+      </c>
+      <c r="H40" s="16">
+        <v>4</v>
+      </c>
       <c r="I40" s="17">
-        <v>0</v>
-      </c>
-      <c r="P40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="BD40" s="20"/>
-      <c r="BU40" s="20"/>
-      <c r="CF40" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="BD40" s="19"/>
+      <c r="BU40" s="19"/>
+      <c r="CF40" s="19"/>
     </row>
     <row r="41" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>29</v>
@@ -2829,21 +2846,21 @@
       <c r="I41" s="17">
         <v>0</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="AL41" s="23"/>
-      <c r="BD41" s="20"/>
-      <c r="BU41" s="20"/>
-      <c r="CF41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="BD41" s="19"/>
+      <c r="BU41" s="19"/>
+      <c r="CF41" s="19"/>
     </row>
     <row r="42" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>33</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>29</v>
@@ -2859,21 +2876,21 @@
       <c r="I42" s="17">
         <v>0</v>
       </c>
-      <c r="P42" s="23"/>
-      <c r="AL42" s="23"/>
-      <c r="BD42" s="20"/>
-      <c r="BU42" s="20"/>
-      <c r="CF42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="AL42" s="21"/>
+      <c r="BD42" s="19"/>
+      <c r="BU42" s="19"/>
+      <c r="CF42" s="19"/>
     </row>
     <row r="43" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>29</v>
@@ -2889,21 +2906,21 @@
       <c r="I43" s="17">
         <v>0</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="BD43" s="20"/>
-      <c r="BU43" s="20"/>
-      <c r="CF43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="BD43" s="19"/>
+      <c r="BU43" s="19"/>
+      <c r="CF43" s="19"/>
     </row>
     <row r="44" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>29</v>
@@ -2919,21 +2936,21 @@
       <c r="I44" s="17">
         <v>0</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="AL44" s="23"/>
-      <c r="BD44" s="20"/>
-      <c r="BU44" s="20"/>
-      <c r="CF44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="BD44" s="19"/>
+      <c r="BU44" s="19"/>
+      <c r="CF44" s="19"/>
     </row>
     <row r="45" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>29</v>
@@ -2949,21 +2966,21 @@
       <c r="I45" s="17">
         <v>0</v>
       </c>
-      <c r="P45" s="23"/>
-      <c r="AL45" s="23"/>
-      <c r="BD45" s="20"/>
-      <c r="BU45" s="20"/>
-      <c r="CF45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="BD45" s="19"/>
+      <c r="BU45" s="19"/>
+      <c r="CF45" s="19"/>
     </row>
     <row r="46" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>90</v>
+      <c r="B46" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>29</v>
@@ -2979,21 +2996,21 @@
       <c r="I46" s="17">
         <v>0</v>
       </c>
-      <c r="P46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="BD46" s="20"/>
-      <c r="BU46" s="20"/>
-      <c r="CF46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="BD46" s="19"/>
+      <c r="BU46" s="19"/>
+      <c r="CF46" s="19"/>
     </row>
     <row r="47" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>29</v>
@@ -3009,21 +3026,21 @@
       <c r="I47" s="17">
         <v>0</v>
       </c>
-      <c r="P47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="BD47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="CF47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="AL47" s="21"/>
+      <c r="BD47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="CF47" s="19"/>
     </row>
     <row r="48" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>29</v>
@@ -3039,21 +3056,21 @@
       <c r="I48" s="17">
         <v>0</v>
       </c>
-      <c r="P48" s="23"/>
-      <c r="AL48" s="23"/>
-      <c r="BD48" s="20"/>
-      <c r="BU48" s="20"/>
-      <c r="CF48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="BD48" s="19"/>
+      <c r="BU48" s="19"/>
+      <c r="CF48" s="19"/>
     </row>
     <row r="49" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>29</v>
@@ -3069,11 +3086,11 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="P49" s="23"/>
-      <c r="AL49" s="23"/>
-      <c r="BD49" s="20"/>
-      <c r="BU49" s="20"/>
-      <c r="CF49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="BD49" s="19"/>
+      <c r="BU49" s="19"/>
+      <c r="CF49" s="19"/>
     </row>
     <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="P50" s="1" t="s">
@@ -3185,1057 +3202,1057 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
     </row>
     <row r="13" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
     </row>
     <row r="17" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
     </row>
     <row r="18" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
     </row>
     <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
     </row>
     <row r="21" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
     </row>
     <row r="22" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
     </row>
     <row r="24" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="25" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
     </row>
     <row r="26" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
     </row>
     <row r="27" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
     </row>
     <row r="28" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
     </row>
     <row r="29" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
     </row>
     <row r="32" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
     </row>
     <row r="35" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
     </row>
     <row r="65" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
     </row>
     <row r="66" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
     </row>
     <row r="67" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
     </row>
     <row r="68" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomarini/Desktop/WARC-Portal/_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="440" windowWidth="27860" windowHeight="17560"/>
+    <workbookView xWindow="700" yWindow="440" windowWidth="37700" windowHeight="21160"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
   <si>
     <t>Plan</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve"> Period Highlight:</t>
   </si>
   <si>
-    <t>ASSIGNED</t>
-  </si>
-  <si>
     <t>DATES</t>
   </si>
   <si>
@@ -203,33 +200,9 @@
     <t>Design Document</t>
   </si>
   <si>
-    <t>Image extraction</t>
-  </si>
-  <si>
-    <t>Image packaging and downloading</t>
-  </si>
-  <si>
-    <t>Duplicate text detection</t>
-  </si>
-  <si>
-    <t>Keyword search</t>
-  </si>
-  <si>
-    <t>Crawl Date extraction</t>
-  </si>
-  <si>
-    <t>Graph visualization</t>
-  </si>
-  <si>
-    <t>Term frequency graph</t>
-  </si>
-  <si>
     <t>Adriano</t>
   </si>
   <si>
-    <t>File Selection functionality</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -281,36 +254,6 @@
     <t>Mate, Cheng</t>
   </si>
   <si>
-    <t>HDFS Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term frequency (tf-idf) </t>
-  </si>
-  <si>
-    <t>Test - US1</t>
-  </si>
-  <si>
-    <t>Test - US2</t>
-  </si>
-  <si>
-    <t>Test - US3</t>
-  </si>
-  <si>
-    <t>Test - US4</t>
-  </si>
-  <si>
-    <t>Test - US5</t>
-  </si>
-  <si>
-    <t>Test - US6</t>
-  </si>
-  <si>
-    <t>Test - US7</t>
-  </si>
-  <si>
-    <t>Test - US8</t>
-  </si>
-  <si>
     <t>Cheng</t>
   </si>
   <si>
@@ -341,47 +284,176 @@
     <t>6-13</t>
   </si>
   <si>
-    <t>1,6,9,12</t>
-  </si>
-  <si>
-    <t>Test - US9</t>
-  </si>
-  <si>
-    <t>Test - US10</t>
-  </si>
-  <si>
-    <t>Test - US11</t>
-  </si>
-  <si>
-    <t>Test - US12</t>
-  </si>
-  <si>
-    <t>27,28</t>
-  </si>
-  <si>
-    <t>29,31</t>
-  </si>
-  <si>
-    <t>29,30,31,32</t>
-  </si>
-  <si>
-    <t>Front End App Skeleton</t>
-  </si>
-  <si>
-    <t>Backend App Skeleton</t>
-  </si>
-  <si>
     <t>MySQL Install</t>
   </si>
   <si>
-    <t>Cheng + Adriano</t>
+    <t>WARCBase Install</t>
+  </si>
+  <si>
+    <t>OpenWayback Install</t>
+  </si>
+  <si>
+    <t>Hadoop Install</t>
+  </si>
+  <si>
+    <t>Sqoop Install</t>
+  </si>
+  <si>
+    <t>Image Processing Library Install</t>
+  </si>
+  <si>
+    <t>React Skeleton</t>
+  </si>
+  <si>
+    <t>Django Skeleton</t>
+  </si>
+  <si>
+    <t>React + Django Link</t>
+  </si>
+  <si>
+    <t>Running Test Web Service</t>
+  </si>
+  <si>
+    <t>Login Functionality</t>
+  </si>
+  <si>
+    <t>Cheng &amp; Kevin</t>
+  </si>
+  <si>
+    <t>Kevin / Adriano</t>
+  </si>
+  <si>
+    <t>File mining functionality</t>
+  </si>
+  <si>
+    <t>WARC file processing functionality</t>
+  </si>
+  <si>
+    <t>Image processing functionality</t>
+  </si>
+  <si>
+    <t>Text analysis functionality</t>
+  </si>
+  <si>
+    <t>TF-IDF functionality</t>
+  </si>
+  <si>
+    <t>Search engine</t>
+  </si>
+  <si>
+    <t>Webpage display</t>
+  </si>
+  <si>
+    <t>Search filters</t>
+  </si>
+  <si>
+    <t>Image search</t>
+  </si>
+  <si>
+    <t>Image display</t>
+  </si>
+  <si>
+    <t>Image analysis functionality</t>
+  </si>
+  <si>
+    <t>Date extraction</t>
+  </si>
+  <si>
+    <t>Collection creation</t>
+  </si>
+  <si>
+    <t>Collection management</t>
+  </si>
+  <si>
+    <t>Search engine test suite</t>
+  </si>
+  <si>
+    <t>Collection engine test suite</t>
+  </si>
+  <si>
+    <t>Processing test suite</t>
+  </si>
+  <si>
+    <t>Database test suite</t>
+  </si>
+  <si>
+    <t>Cheng / Adriano</t>
+  </si>
+  <si>
+    <t>Mate, Adriano</t>
+  </si>
+  <si>
+    <t>Kevin / Cheng</t>
+  </si>
+  <si>
+    <t>ASSIGNED LEAD</t>
+  </si>
+  <si>
+    <t>Admin documentation compilation</t>
+  </si>
+  <si>
+    <t>User documentation compilation</t>
+  </si>
+  <si>
+    <t>Screencast</t>
+  </si>
+  <si>
+    <t>Presentation and Delivery</t>
+  </si>
+  <si>
+    <t>Database link (Sqoop)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>16,17,24</t>
+  </si>
+  <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
+    <t>19,20,21,22</t>
+  </si>
+  <si>
+    <t>18,29</t>
+  </si>
+  <si>
+    <t>19,20,27,28,30-33,39</t>
+  </si>
+  <si>
+    <t>34,35,37,38</t>
+  </si>
+  <si>
+    <t>40,41</t>
+  </si>
+  <si>
+    <t>27,28,29</t>
+  </si>
+  <si>
+    <t>27,28,29,32,33</t>
+  </si>
+  <si>
+    <t>27,28,29,32,33,34</t>
+  </si>
+  <si>
+    <t>27,28,29,30,31</t>
+  </si>
+  <si>
+    <t>28,29,32</t>
+  </si>
+  <si>
+    <t>Kevin / Mate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -420,20 +492,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -484,6 +544,48 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="12">
@@ -643,18 +745,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -663,14 +765,20 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,13 +788,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
@@ -695,7 +803,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyFont="1">
@@ -716,70 +824,75 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="9" builtinId="40"/>
     <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
     <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6"/>
@@ -1238,17 +1351,17 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:CG50"/>
+  <dimension ref="A2:CG59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="BD24" sqref="BD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="7" width="7.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
@@ -1261,26 +1374,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:85" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1289,15 +1402,15 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="V3" s="11"/>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="12"/>
@@ -1320,14 +1433,14 @@
       <c r="AR3"/>
     </row>
     <row r="4" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -1370,10 +1483,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
@@ -1421,7 +1534,7 @@
       <c r="O8" s="3">
         <v>5</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="17">
         <v>6</v>
       </c>
       <c r="Q8" s="3">
@@ -1487,7 +1600,7 @@
       <c r="AK8" s="3">
         <v>27</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AL8" s="3">
         <v>28</v>
       </c>
       <c r="AM8" s="3">
@@ -1541,7 +1654,7 @@
       <c r="BC8" s="3">
         <v>45</v>
       </c>
-      <c r="BD8" s="20">
+      <c r="BD8" s="3">
         <v>46</v>
       </c>
       <c r="BE8" s="3">
@@ -1592,7 +1705,7 @@
       <c r="BT8" s="3">
         <v>62</v>
       </c>
-      <c r="BU8" s="20">
+      <c r="BU8" s="3">
         <v>63</v>
       </c>
       <c r="BV8" s="3">
@@ -1625,23 +1738,20 @@
       <c r="CE8" s="3">
         <v>73</v>
       </c>
-      <c r="CF8" s="20">
-        <v>74</v>
-      </c>
       <c r="CG8" s="1"/>
     </row>
     <row r="9" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="3">
         <v>21</v>
       </c>
@@ -1657,7 +1767,7 @@
       <c r="O9" s="3">
         <v>25</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="17">
         <v>26</v>
       </c>
       <c r="Q9" s="3">
@@ -1673,195 +1783,192 @@
         <v>30</v>
       </c>
       <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>15</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>17</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>18</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>19</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>21</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>22</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>23</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>24</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>25</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>26</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>27</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>28</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>29</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>30</v>
+      </c>
+      <c r="AY9" s="3">
         <v>31</v>
       </c>
-      <c r="V9" s="3">
+      <c r="AZ9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3">
+      <c r="BA9" s="3">
         <v>2</v>
       </c>
-      <c r="X9" s="3">
+      <c r="BB9" s="3">
         <v>3</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="BC9" s="17">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="BD9" s="3">
         <v>5</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="BE9" s="3">
         <v>6</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="BF9" s="3">
         <v>7</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="BG9" s="3">
         <v>8</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="BH9" s="3">
         <v>9</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="BI9" s="3">
         <v>10</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="BJ9" s="3">
         <v>11</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="BK9" s="3">
         <v>12</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="BL9" s="3">
         <v>13</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="BM9" s="3">
         <v>14</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="BN9" s="3">
         <v>15</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="BO9" s="3">
         <v>16</v>
       </c>
-      <c r="AL9" s="20">
+      <c r="BP9" s="3">
         <v>17</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="BQ9" s="3">
         <v>18</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="BR9" s="3">
         <v>19</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="BS9" s="3">
         <v>20</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="BT9" s="17">
         <v>21</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="BU9" s="3">
         <v>22</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="BV9" s="3">
         <v>23</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="BW9" s="3">
         <v>24</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="BX9" s="3">
         <v>25</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="BY9" s="3">
         <v>26</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="BZ9" s="3">
         <v>27</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="CA9" s="3">
         <v>28</v>
       </c>
-      <c r="AX9" s="3">
+      <c r="CB9" s="3">
         <v>29</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="CC9" s="3">
         <v>30</v>
       </c>
-      <c r="AZ9" s="3">
-        <v>31</v>
-      </c>
-      <c r="BA9" s="3">
+      <c r="CD9" s="3">
         <v>1</v>
       </c>
-      <c r="BB9" s="3">
-        <v>2</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>3</v>
-      </c>
-      <c r="BD9" s="20">
-        <v>4</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>5</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>6</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>7</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>8</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>9</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>10</v>
-      </c>
-      <c r="BK9" s="3">
-        <v>11</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>12</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>13</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>14</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>15</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>16</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>17</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>18</v>
-      </c>
-      <c r="BS9" s="3">
-        <v>19</v>
-      </c>
-      <c r="BT9" s="3">
-        <v>20</v>
-      </c>
-      <c r="BU9" s="20">
-        <v>21</v>
-      </c>
-      <c r="BV9" s="3">
-        <v>22</v>
-      </c>
-      <c r="BW9" s="3">
-        <v>23</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>24</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>25</v>
-      </c>
-      <c r="BZ9" s="3">
-        <v>26</v>
-      </c>
-      <c r="CA9" s="3">
-        <v>27</v>
-      </c>
-      <c r="CB9" s="3">
-        <v>28</v>
-      </c>
-      <c r="CC9" s="3">
-        <v>29</v>
-      </c>
-      <c r="CD9" s="3">
-        <v>30</v>
-      </c>
-      <c r="CE9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CF9" s="20">
+      <c r="CE9" s="17">
         <v>2</v>
       </c>
       <c r="CG9" s="1"/>
@@ -1870,1243 +1977,1670 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="31">
         <v>6</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="31">
         <v>5</v>
       </c>
-      <c r="I10" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="BD10" s="19"/>
-      <c r="BU10" s="19"/>
-      <c r="CF10" s="19"/>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="P10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AR10"/>
+      <c r="BC10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="CE10" s="16"/>
     </row>
     <row r="11" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="B11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="31">
         <v>6</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="31">
         <v>1</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="BD11" s="19"/>
-      <c r="BU11" s="19"/>
-      <c r="CF11" s="19"/>
+      <c r="J11" s="32"/>
+      <c r="P11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AR11"/>
+      <c r="BC11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="CE11" s="16"/>
     </row>
     <row r="12" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="B12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31">
         <v>1</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="31">
         <v>6</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="31">
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="31">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="29">
         <v>1</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="BD12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="CF12" s="19"/>
+      <c r="J12" s="32"/>
+      <c r="P12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AR12"/>
+      <c r="BC12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="CE12" s="16"/>
     </row>
     <row r="13" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="31">
         <v>6</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="31">
         <v>1</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="31">
         <v>5</v>
       </c>
-      <c r="I13" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="BD13" s="19"/>
-      <c r="BU13" s="19"/>
-      <c r="CF13" s="19"/>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="P13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AR13"/>
+      <c r="BC13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="CE13" s="16"/>
     </row>
     <row r="14" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="B14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="31">
         <v>6</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="31">
         <v>1</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="31">
         <v>4</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="29">
         <v>1</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="BD14" s="19"/>
-      <c r="BU14" s="19"/>
-      <c r="CF14" s="19"/>
+      <c r="J14" s="32"/>
+      <c r="P14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AR14"/>
+      <c r="BC14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="CE14" s="16"/>
     </row>
     <row r="15" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="B15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="31">
         <v>22</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="31">
         <v>5</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="BD15" s="19"/>
-      <c r="BU15" s="19"/>
-      <c r="CF15" s="19"/>
+      <c r="G15" s="31">
+        <v>24</v>
+      </c>
+      <c r="H15" s="31">
+        <v>4</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="P15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AR15"/>
+      <c r="BC15" s="16"/>
+      <c r="BT15" s="16"/>
+      <c r="CE15" s="16"/>
     </row>
     <row r="16" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="B16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="31">
         <v>22</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="31">
         <v>5</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="BD16" s="19"/>
-      <c r="BU16" s="19"/>
-      <c r="CF16" s="19"/>
-    </row>
-    <row r="17" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="31">
+        <v>24</v>
+      </c>
+      <c r="H16" s="31">
+        <v>4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="P16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AR16"/>
+      <c r="BC16" s="16"/>
+      <c r="BT16" s="16"/>
+      <c r="CE16" s="16"/>
+    </row>
+    <row r="17" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="31">
         <v>22</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="31">
         <v>5</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="BD17" s="19"/>
-      <c r="BU17" s="19"/>
-      <c r="CF17" s="19"/>
-    </row>
-    <row r="18" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="31">
+        <v>24</v>
+      </c>
+      <c r="H17" s="31">
+        <v>4</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="P17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AR17"/>
+      <c r="BC17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="CE17" s="16"/>
+    </row>
+    <row r="18" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="31">
         <v>22</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="31">
         <v>5</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="BD18" s="19"/>
-      <c r="BU18" s="19"/>
-      <c r="CF18" s="19"/>
-    </row>
-    <row r="19" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="31">
+        <v>24</v>
+      </c>
+      <c r="H18" s="31">
+        <v>4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="32"/>
+      <c r="P18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AR18"/>
+      <c r="BC18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="CE18" s="16"/>
+    </row>
+    <row r="19" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="16">
+      <c r="C19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="31">
         <v>22</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="31">
         <v>5</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="BD19" s="19"/>
-      <c r="BU19" s="19"/>
-      <c r="CF19" s="19"/>
-    </row>
-    <row r="20" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="31">
+        <v>24</v>
+      </c>
+      <c r="H19" s="31">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="P19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AR19"/>
+      <c r="BC19" s="16"/>
+      <c r="BT19" s="16"/>
+      <c r="CE19" s="16"/>
+    </row>
+    <row r="20" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="B20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="31">
         <v>22</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="31">
         <v>5</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="AL20" s="21"/>
-      <c r="BD20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="CF20" s="19"/>
-    </row>
-    <row r="21" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="31">
+        <v>24</v>
+      </c>
+      <c r="H20" s="31">
+        <v>4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>1</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="P20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AR20"/>
+      <c r="BC20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="CE20" s="16"/>
+    </row>
+    <row r="21" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="B21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="31">
         <v>22</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="31">
         <v>5</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="BD21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="CF21" s="19"/>
-    </row>
-    <row r="22" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="31">
+        <v>24</v>
+      </c>
+      <c r="H21" s="31">
+        <v>4</v>
+      </c>
+      <c r="I21" s="29">
+        <v>1</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="P21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AR21"/>
+      <c r="BC21" s="16"/>
+      <c r="BT21" s="16"/>
+      <c r="CE21" s="16"/>
+    </row>
+    <row r="22" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="30">
         <v>3</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="31">
         <v>28</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="31">
         <v>1</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="BD22" s="19"/>
-      <c r="BU22" s="19"/>
-      <c r="CF22" s="19"/>
-    </row>
-    <row r="23" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="31">
+        <v>27</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="29">
+        <v>1</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="P22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AR22"/>
+      <c r="BC22" s="16"/>
+      <c r="BT22" s="16"/>
+      <c r="CE22" s="16"/>
+    </row>
+    <row r="23" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="B23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="31">
         <v>22</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="31">
         <v>5</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="BD23" s="19"/>
-      <c r="BU23" s="19"/>
-      <c r="CF23" s="19"/>
-    </row>
-    <row r="24" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="31">
+        <v>27</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1</v>
+      </c>
+      <c r="I23" s="29">
+        <v>1</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="P23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AR23"/>
+      <c r="BC23" s="16"/>
+      <c r="BT23" s="16"/>
+      <c r="CE23" s="16"/>
+    </row>
+    <row r="24" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="16">
-        <v>14</v>
-      </c>
-      <c r="F24" s="16">
-        <v>8</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="BD24" s="19"/>
-      <c r="BU24" s="19"/>
-      <c r="CF24" s="19"/>
-    </row>
-    <row r="25" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="31">
+        <v>7</v>
+      </c>
+      <c r="F24" s="31">
+        <v>4</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31">
+        <v>4</v>
+      </c>
+      <c r="I24" s="29">
+        <v>1</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="P24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AR24"/>
+      <c r="BC24" s="16"/>
+      <c r="BT24" s="16"/>
+      <c r="CE24" s="16"/>
+    </row>
+    <row r="25" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="16">
-        <v>14</v>
-      </c>
-      <c r="F25" s="16">
-        <v>8</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="BD25" s="19"/>
-      <c r="BU25" s="19"/>
-      <c r="CF25" s="19"/>
-    </row>
-    <row r="26" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="31">
+        <v>22</v>
+      </c>
+      <c r="F25" s="31">
+        <v>10</v>
+      </c>
+      <c r="G25" s="31">
+        <v>12</v>
+      </c>
+      <c r="H25" s="31">
+        <v>4</v>
+      </c>
+      <c r="I25" s="29">
+        <v>1</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="P25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AR25"/>
+      <c r="BC25" s="16"/>
+      <c r="BT25" s="16"/>
+      <c r="CE25" s="16"/>
+    </row>
+    <row r="26" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="16">
-        <v>14</v>
-      </c>
-      <c r="F26" s="16">
-        <v>8</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="AL26" s="21"/>
-      <c r="BD26" s="19"/>
-      <c r="BU26" s="19"/>
-      <c r="CF26" s="19"/>
-    </row>
-    <row r="27" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="31">
+        <v>22</v>
+      </c>
+      <c r="F26" s="31">
+        <v>10</v>
+      </c>
+      <c r="G26" s="31">
+        <v>12</v>
+      </c>
+      <c r="H26" s="31">
+        <v>4</v>
+      </c>
+      <c r="I26" s="29">
+        <v>1</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="P26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AR26"/>
+      <c r="BC26" s="16"/>
+      <c r="BT26" s="16"/>
+      <c r="CE26" s="16"/>
+    </row>
+    <row r="27" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="16">
-        <v>14</v>
-      </c>
-      <c r="F27" s="16">
-        <v>8</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="BD27" s="19"/>
-      <c r="BU27" s="19"/>
-      <c r="CF27" s="19"/>
-    </row>
-    <row r="28" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="31">
+        <v>22</v>
+      </c>
+      <c r="F27" s="31">
+        <v>10</v>
+      </c>
+      <c r="G27" s="31">
+        <v>12</v>
+      </c>
+      <c r="H27" s="31">
+        <v>4</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="P27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AR27"/>
+      <c r="BC27" s="16"/>
+      <c r="BT27" s="16"/>
+      <c r="CE27" s="16"/>
+    </row>
+    <row r="28" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="16">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16">
-        <v>8</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="BD28" s="19"/>
-      <c r="BU28" s="19"/>
-      <c r="CF28" s="19"/>
-    </row>
-    <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="31">
+        <v>22</v>
+      </c>
+      <c r="F28" s="31">
+        <v>10</v>
+      </c>
+      <c r="G28" s="31">
+        <v>12</v>
+      </c>
+      <c r="H28" s="31">
+        <v>17</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="P28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AR28"/>
+      <c r="BC28" s="16"/>
+      <c r="BT28" s="16"/>
+      <c r="CE28" s="16"/>
+    </row>
+    <row r="29" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="16">
-        <v>14</v>
-      </c>
-      <c r="F29" s="16">
-        <v>8</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="BD29" s="19"/>
-      <c r="BU29" s="19"/>
-      <c r="CF29" s="19"/>
-    </row>
-    <row r="30" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="31">
+        <v>22</v>
+      </c>
+      <c r="F29" s="31">
+        <v>10</v>
+      </c>
+      <c r="G29" s="31">
+        <v>12</v>
+      </c>
+      <c r="H29" s="31">
+        <v>17</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="P29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AR29"/>
+      <c r="BC29" s="16"/>
+      <c r="BT29" s="16"/>
+      <c r="CE29" s="16"/>
+    </row>
+    <row r="30" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="16">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16">
-        <v>8</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17">
+      <c r="B30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="31">
+        <v>22</v>
+      </c>
+      <c r="F30" s="31">
+        <v>10</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29">
         <v>0</v>
       </c>
-      <c r="P30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="BD30" s="19"/>
-      <c r="BU30" s="19"/>
-      <c r="CF30" s="19"/>
-    </row>
-    <row r="31" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="32"/>
+      <c r="P30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AR30"/>
+      <c r="BC30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="CE30" s="16"/>
+    </row>
+    <row r="31" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="16">
-        <v>14</v>
-      </c>
-      <c r="F31" s="16">
-        <v>8</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17">
+      <c r="B31" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="32">
+        <v>22</v>
+      </c>
+      <c r="F31" s="32">
+        <v>10</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29">
         <v>0</v>
       </c>
-      <c r="P31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="BD31" s="19"/>
-      <c r="BU31" s="19"/>
-      <c r="CF31" s="19"/>
-    </row>
-    <row r="32" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="32"/>
+      <c r="P31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AR31"/>
+      <c r="BC31" s="16"/>
+      <c r="BT31" s="16"/>
+      <c r="CE31" s="16"/>
+    </row>
+    <row r="32" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="16">
-        <v>14</v>
-      </c>
-      <c r="F32" s="16">
-        <v>8</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17">
+      <c r="B32" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="31">
+        <v>22</v>
+      </c>
+      <c r="F32" s="31">
+        <v>10</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="29">
         <v>0</v>
       </c>
-      <c r="P32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="BD32" s="19"/>
-      <c r="BU32" s="19"/>
-      <c r="CF32" s="19"/>
-    </row>
-    <row r="33" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="32"/>
+      <c r="P32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AR32"/>
+      <c r="BC32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="CE32" s="16"/>
+    </row>
+    <row r="33" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="16">
-        <v>14</v>
-      </c>
-      <c r="F33" s="16">
-        <v>8</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="21"/>
-      <c r="AL33" s="21"/>
-      <c r="BD33" s="19"/>
-      <c r="BU33" s="19"/>
-      <c r="CF33" s="19"/>
-    </row>
-    <row r="34" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="31">
+        <v>22</v>
+      </c>
+      <c r="F33" s="31">
+        <v>10</v>
+      </c>
+      <c r="G33" s="31">
+        <v>23</v>
+      </c>
+      <c r="H33" s="31">
+        <v>5</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="J33" s="32"/>
+      <c r="P33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AR33"/>
+      <c r="BC33" s="16"/>
+      <c r="BT33" s="16"/>
+      <c r="CE33" s="16"/>
+    </row>
+    <row r="34" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="16">
-        <v>14</v>
-      </c>
-      <c r="F34" s="16">
-        <v>8</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="BD34" s="19"/>
-      <c r="BU34" s="19"/>
-      <c r="CF34" s="19"/>
-    </row>
-    <row r="35" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="31">
+        <v>29</v>
+      </c>
+      <c r="F34" s="31">
+        <v>3</v>
+      </c>
+      <c r="G34" s="31">
+        <v>23</v>
+      </c>
+      <c r="H34" s="31">
+        <v>9</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="P34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AR34"/>
+      <c r="BC34" s="16"/>
+      <c r="BT34" s="16"/>
+      <c r="CE34" s="16"/>
+    </row>
+    <row r="35" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="16">
-        <v>14</v>
-      </c>
-      <c r="F35" s="16">
-        <v>8</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17">
+      <c r="B35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="31">
+        <v>56</v>
+      </c>
+      <c r="F35" s="31">
+        <v>5</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29">
         <v>0</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="BD35" s="19"/>
-      <c r="BU35" s="19"/>
-      <c r="CF35" s="19"/>
-    </row>
-    <row r="36" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="32"/>
+      <c r="P35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AR35"/>
+      <c r="BC35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="CE35" s="16"/>
+    </row>
+    <row r="36" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="16">
+      <c r="B36" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="31">
+        <v>28</v>
+      </c>
+      <c r="F36" s="31">
         <v>7</v>
       </c>
-      <c r="F36" s="16">
-        <v>4</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16">
-        <v>4</v>
-      </c>
-      <c r="I36" s="17">
-        <v>1</v>
-      </c>
-      <c r="P36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="BD36" s="19"/>
-      <c r="BU36" s="19"/>
-      <c r="CF36" s="19"/>
-    </row>
-    <row r="37" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32"/>
+      <c r="P36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AR36"/>
+      <c r="BC36" s="16"/>
+      <c r="BT36" s="16"/>
+      <c r="CE36" s="16"/>
+    </row>
+    <row r="37" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="16">
+      <c r="B37" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="31">
+        <v>28</v>
+      </c>
+      <c r="F37" s="31">
         <v>7</v>
       </c>
-      <c r="F37" s="16">
-        <v>4</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17">
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
-      <c r="P37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="BD37" s="19"/>
-      <c r="BU37" s="19"/>
-      <c r="CF37" s="19"/>
-    </row>
-    <row r="38" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="32"/>
+      <c r="P37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AR37"/>
+      <c r="BC37" s="16"/>
+      <c r="BT37" s="16"/>
+      <c r="CE37" s="16"/>
+    </row>
+    <row r="38" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="16">
-        <v>22</v>
-      </c>
-      <c r="F38" s="16">
-        <v>53</v>
-      </c>
-      <c r="G38" s="16">
-        <v>12</v>
-      </c>
-      <c r="H38" s="16">
-        <v>4</v>
-      </c>
-      <c r="I38" s="17">
-        <v>1</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="BD38" s="19"/>
-      <c r="BU38" s="19"/>
-      <c r="CF38" s="19"/>
-    </row>
-    <row r="39" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="31">
+        <v>35</v>
+      </c>
+      <c r="F38" s="31">
+        <v>5</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29">
+        <v>0</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="P38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AR38"/>
+      <c r="BC38" s="16"/>
+      <c r="BT38" s="16"/>
+      <c r="CE38" s="16"/>
+    </row>
+    <row r="39" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="16">
-        <v>22</v>
-      </c>
-      <c r="F39" s="16">
-        <v>53</v>
-      </c>
-      <c r="G39" s="16">
-        <v>12</v>
-      </c>
-      <c r="H39" s="16">
-        <v>4</v>
-      </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
-      <c r="P39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="BD39" s="19"/>
-      <c r="BU39" s="19"/>
-      <c r="CF39" s="19"/>
-    </row>
-    <row r="40" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="32">
+        <v>46</v>
+      </c>
+      <c r="F39" s="32">
+        <v>5</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="29">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="P39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AR39"/>
+      <c r="BC39" s="16"/>
+      <c r="BT39" s="16"/>
+      <c r="CE39" s="16"/>
+    </row>
+    <row r="40" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>31</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="16">
-        <v>22</v>
-      </c>
-      <c r="F40" s="16">
-        <v>53</v>
-      </c>
-      <c r="G40" s="16">
-        <v>12</v>
-      </c>
-      <c r="H40" s="16">
-        <v>4</v>
-      </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="BD40" s="19"/>
-      <c r="BU40" s="19"/>
-      <c r="CF40" s="19"/>
-    </row>
-    <row r="41" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="32">
+        <v>46</v>
+      </c>
+      <c r="F40" s="32">
+        <v>5</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="29">
+        <v>0</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="P40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AR40"/>
+      <c r="BC40" s="16"/>
+      <c r="BT40" s="16"/>
+      <c r="CE40" s="16"/>
+    </row>
+    <row r="41" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="16">
-        <v>22</v>
-      </c>
-      <c r="F41" s="16">
-        <v>53</v>
-      </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17">
+      <c r="F41" s="32">
+        <v>6</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="29">
         <v>0</v>
       </c>
-      <c r="P41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="BD41" s="19"/>
-      <c r="BU41" s="19"/>
-      <c r="CF41" s="19"/>
-    </row>
-    <row r="42" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="32"/>
+      <c r="P41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AR41"/>
+      <c r="BC41" s="16"/>
+      <c r="BT41" s="16"/>
+      <c r="CE41" s="16"/>
+    </row>
+    <row r="42" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>33</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="16">
-        <v>22</v>
-      </c>
-      <c r="F42" s="16">
-        <v>53</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17">
+      <c r="B42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="32">
+        <v>51</v>
+      </c>
+      <c r="F42" s="32">
+        <v>5</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="AL42" s="21"/>
-      <c r="BD42" s="19"/>
-      <c r="BU42" s="19"/>
-      <c r="CF42" s="19"/>
-    </row>
-    <row r="43" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="32"/>
+      <c r="P42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AR42"/>
+      <c r="BC42" s="16"/>
+      <c r="BT42" s="16"/>
+      <c r="CE42" s="16"/>
+    </row>
+    <row r="43" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>34</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="16">
-        <v>22</v>
-      </c>
-      <c r="F43" s="16">
-        <v>53</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17">
+      <c r="B43" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="32">
+        <f>35+5</f>
+        <v>40</v>
+      </c>
+      <c r="F43" s="32">
+        <v>6</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="29">
         <v>0</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="BD43" s="19"/>
-      <c r="BU43" s="19"/>
-      <c r="CF43" s="19"/>
-    </row>
-    <row r="44" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="32"/>
+      <c r="P43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AR43"/>
+      <c r="BC43" s="16"/>
+      <c r="BT43" s="16"/>
+      <c r="CE43" s="16"/>
+    </row>
+    <row r="44" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="16">
-        <v>22</v>
-      </c>
-      <c r="F44" s="16">
-        <v>53</v>
-      </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17">
+      <c r="B44" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="32">
+        <v>46</v>
+      </c>
+      <c r="F44" s="32">
+        <v>5</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="29">
         <v>0</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="BD44" s="19"/>
-      <c r="BU44" s="19"/>
-      <c r="CF44" s="19"/>
-    </row>
-    <row r="45" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="32"/>
+      <c r="P44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AR44"/>
+      <c r="BC44" s="16"/>
+      <c r="BT44" s="16"/>
+      <c r="CE44" s="16"/>
+    </row>
+    <row r="45" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="16">
-        <v>22</v>
-      </c>
-      <c r="F45" s="16">
-        <v>53</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17">
+      <c r="B45" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="32">
+        <v>40</v>
+      </c>
+      <c r="F45" s="32">
+        <v>6</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="29">
         <v>0</v>
       </c>
-      <c r="P45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="BD45" s="19"/>
-      <c r="BU45" s="19"/>
-      <c r="CF45" s="19"/>
-    </row>
-    <row r="46" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="32"/>
+      <c r="P45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AR45"/>
+      <c r="BC45" s="16"/>
+      <c r="BT45" s="16"/>
+      <c r="CE45" s="16"/>
+    </row>
+    <row r="46" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="16">
-        <v>22</v>
-      </c>
-      <c r="F46" s="16">
-        <v>53</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17">
+      <c r="B46" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="32">
+        <f>46+5</f>
+        <v>51</v>
+      </c>
+      <c r="F46" s="32">
+        <v>5</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="29">
         <v>0</v>
       </c>
-      <c r="P46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="BD46" s="19"/>
-      <c r="BU46" s="19"/>
-      <c r="CF46" s="19"/>
-    </row>
-    <row r="47" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="32"/>
+      <c r="P46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AR46"/>
+      <c r="BC46" s="16"/>
+      <c r="BT46" s="16"/>
+      <c r="CE46" s="16"/>
+    </row>
+    <row r="47" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="16">
-        <v>22</v>
-      </c>
-      <c r="F47" s="16">
-        <v>53</v>
-      </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17">
+      <c r="B47" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="32">
+        <v>51</v>
+      </c>
+      <c r="F47" s="32">
+        <v>5</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="29">
         <v>0</v>
       </c>
-      <c r="P47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="BD47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="CF47" s="19"/>
-    </row>
-    <row r="48" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="32"/>
+      <c r="P47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AR47"/>
+      <c r="BC47" s="16"/>
+      <c r="BT47" s="16"/>
+      <c r="CE47" s="16"/>
+    </row>
+    <row r="48" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>39</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="16">
-        <v>22</v>
-      </c>
-      <c r="F48" s="16">
-        <v>53</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17">
+      <c r="B48" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="32">
+        <v>46</v>
+      </c>
+      <c r="F48" s="32">
+        <v>5</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="29">
         <v>0</v>
       </c>
-      <c r="P48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="BD48" s="19"/>
-      <c r="BU48" s="19"/>
-      <c r="CF48" s="19"/>
-    </row>
-    <row r="49" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="32"/>
+      <c r="P48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AR48"/>
+      <c r="BC48" s="16"/>
+      <c r="BT48" s="16"/>
+      <c r="CE48" s="16"/>
+    </row>
+    <row r="49" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="29" t="s">
+      <c r="B49" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="30">
+        <v>27</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="32">
+        <v>56</v>
+      </c>
+      <c r="F49" s="32">
+        <v>5</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="P49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AR49"/>
+      <c r="BC49" s="16"/>
+      <c r="BT49" s="16"/>
+      <c r="CE49" s="16"/>
+    </row>
+    <row r="50" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="16">
-        <v>22</v>
-      </c>
-      <c r="F49" s="16">
-        <v>53</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17">
+      <c r="C50" s="30">
+        <v>27</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="32">
+        <v>56</v>
+      </c>
+      <c r="F50" s="32">
+        <v>5</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="29">
         <v>0</v>
       </c>
-      <c r="P49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="BD49" s="19"/>
-      <c r="BU49" s="19"/>
-      <c r="CF49" s="19"/>
-    </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="P50" s="1" t="s">
+      <c r="J50" s="32"/>
+      <c r="P50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AR50"/>
+      <c r="BC50" s="16"/>
+      <c r="BT50" s="16"/>
+      <c r="CE50" s="16"/>
+    </row>
+    <row r="51" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="32">
+        <v>61</v>
+      </c>
+      <c r="F51" s="32">
+        <v>7</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="P51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AR51"/>
+      <c r="BC51" s="16"/>
+      <c r="BT51" s="16"/>
+      <c r="CE51" s="16"/>
+    </row>
+    <row r="52" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="32">
+        <v>61</v>
+      </c>
+      <c r="F52" s="32">
+        <v>7</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="P52" s="18"/>
+      <c r="AK52" s="18"/>
+      <c r="AR52"/>
+      <c r="BC52" s="16"/>
+      <c r="BT52" s="16"/>
+      <c r="CE52" s="16"/>
+    </row>
+    <row r="53" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="32">
+        <v>61</v>
+      </c>
+      <c r="F53" s="32">
+        <v>7</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="29">
+        <v>0</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="P53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AR53"/>
+      <c r="BC53" s="16"/>
+      <c r="BT53" s="16"/>
+      <c r="CE53" s="16"/>
+    </row>
+    <row r="54" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="32">
+        <v>61</v>
+      </c>
+      <c r="F54" s="32">
+        <v>7</v>
+      </c>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="P54" s="18"/>
+      <c r="AK54" s="18"/>
+      <c r="AR54"/>
+      <c r="BC54" s="16"/>
+      <c r="BT54" s="16"/>
+      <c r="CE54" s="16"/>
+    </row>
+    <row r="55" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="32">
+        <v>68</v>
+      </c>
+      <c r="F55" s="32">
+        <v>4</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="29">
+        <v>0</v>
+      </c>
+      <c r="J55" s="32"/>
+      <c r="P55" s="18"/>
+      <c r="AK55" s="18"/>
+      <c r="AR55"/>
+      <c r="BC55" s="16"/>
+      <c r="BT55" s="16"/>
+      <c r="CE55" s="16"/>
+    </row>
+    <row r="56" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="32">
+        <v>68</v>
+      </c>
+      <c r="F56" s="32">
+        <v>4</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="29">
+        <v>0</v>
+      </c>
+      <c r="J56" s="32"/>
+      <c r="P56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AR56"/>
+      <c r="BC56" s="16"/>
+      <c r="BT56" s="16"/>
+      <c r="CE56" s="16"/>
+    </row>
+    <row r="57" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="32">
+        <v>72</v>
+      </c>
+      <c r="F57" s="32">
+        <v>1</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="29">
+        <v>0</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="P57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AR57"/>
+      <c r="BC57" s="16"/>
+      <c r="BT57" s="16"/>
+      <c r="CE57" s="16"/>
+    </row>
+    <row r="58" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="32">
+        <v>73</v>
+      </c>
+      <c r="F58" s="32">
+        <v>1</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="P58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AR58"/>
+      <c r="BC58" s="16"/>
+      <c r="BT58" s="16"/>
+      <c r="CE58" s="16"/>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="P59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AL50" s="1" t="s">
+      <c r="AR59"/>
+      <c r="BC59" t="s">
         <v>17</v>
       </c>
-      <c r="BD50" t="s">
+      <c r="BT59" t="s">
         <v>18</v>
       </c>
-      <c r="BU50" t="s">
+      <c r="CE59" t="s">
         <v>19</v>
-      </c>
-      <c r="CF50" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3648,8 @@
     <mergeCell ref="B2:I4"/>
     <mergeCell ref="B9:J9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K10:CF49">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="K10:CE58">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3140,12 +3675,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:CF50">
+  <conditionalFormatting sqref="B59:CE59">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:CF9">
+  <conditionalFormatting sqref="K8:CE9">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$8=period_selected</formula>
     </cfRule>
@@ -3202,1046 +3737,1046 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+    </row>
+    <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
     </row>
     <row r="17" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-    </row>
-    <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-    </row>
-    <row r="20" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
     </row>
     <row r="22" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
     <row r="23" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
     </row>
     <row r="24" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
     </row>
     <row r="25" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
     </row>
     <row r="27" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
     </row>
     <row r="29" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
     </row>
     <row r="30" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
     </row>
     <row r="31" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
     </row>
     <row r="32" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
     </row>
     <row r="34" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="B37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="E37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="38" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-    </row>
-    <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-    </row>
-    <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+      <c r="B54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="D54" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="E54" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="55" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
     </row>
     <row r="64" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
     </row>
     <row r="68" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4254,7 +4789,7 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A52:E52"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -25,7 +25,7 @@
     <definedName name="PeriodInPlan">GANTT!A$8=MEDIAN(GANTT!A$8,GANTT!$E1,GANTT!$E1+GANTT!$F1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(GANTT!$E1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
   <si>
     <t>Plan</t>
   </si>
@@ -290,9 +290,6 @@
     <t>WARCBase Install</t>
   </si>
   <si>
-    <t>OpenWayback Install</t>
-  </si>
-  <si>
     <t>Hadoop Install</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>Cheng / Adriano</t>
   </si>
   <si>
-    <t>Mate, Adriano</t>
-  </si>
-  <si>
     <t>Kevin / Cheng</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>16,17,18</t>
   </si>
   <si>
-    <t>19,20,21,22</t>
-  </si>
-  <si>
     <t>18,29</t>
   </si>
   <si>
@@ -431,29 +422,116 @@
     <t>40,41</t>
   </si>
   <si>
-    <t>27,28,29</t>
-  </si>
-  <si>
-    <t>27,28,29,32,33</t>
-  </si>
-  <si>
-    <t>27,28,29,32,33,34</t>
-  </si>
-  <si>
-    <t>27,28,29,30,31</t>
-  </si>
-  <si>
-    <t>28,29,32</t>
-  </si>
-  <si>
     <t>Kevin / Mate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19,20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21,22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27,28 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27,28,32,33 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27,28,32,33,34 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27,28,30,31 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28,32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19,20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21,22</t>
+    </r>
+  </si>
+  <si>
+    <t>Wayback Install</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -586,6 +664,57 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="12">
@@ -778,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,18 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,6 +999,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1510,7 @@
   <dimension ref="A2:CG59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BD24" sqref="BD24"/>
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1374,26 +1530,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:85" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1433,14 +1589,14 @@
       <c r="AR3"/>
     </row>
     <row r="4" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -1486,7 +1642,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
@@ -1741,17 +1897,17 @@
       <c r="CG8" s="1"/>
     </row>
     <row r="9" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="3">
         <v>21</v>
       </c>
@@ -1977,29 +2133,29 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>1</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>6</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>1</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>5</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="25">
         <v>1</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="28"/>
       <c r="P10" s="18"/>
       <c r="AK10" s="18"/>
       <c r="AR10"/>
@@ -2011,29 +2167,29 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>6</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="27">
         <v>1</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <v>4</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="25">
         <v>1</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="28"/>
       <c r="P11" s="18"/>
       <c r="AK11" s="18"/>
       <c r="AR11"/>
@@ -2045,31 +2201,31 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="27">
         <v>6</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="27">
         <v>1</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="27">
         <v>4</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="28"/>
       <c r="P12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AR12"/>
@@ -2081,31 +2237,31 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <v>1</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="27">
         <v>6</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="27">
         <v>1</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="27">
         <v>5</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <v>1</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="28"/>
       <c r="P13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AR13"/>
@@ -2117,29 +2273,29 @@
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="27">
         <v>6</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="27">
         <v>1</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>4</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="28"/>
       <c r="P14" s="18"/>
       <c r="AK14" s="18"/>
       <c r="AR14"/>
@@ -2151,31 +2307,31 @@
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <v>22</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="27">
         <v>5</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <v>24</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="27">
         <v>4</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>1</v>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="28"/>
       <c r="P15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AR15"/>
@@ -2187,31 +2343,31 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <v>22</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="27">
         <v>5</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>24</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="27">
         <v>4</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <v>1</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="28"/>
       <c r="P16" s="18"/>
       <c r="AK16" s="18"/>
       <c r="AR16"/>
@@ -2223,31 +2379,31 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <v>22</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="27">
         <v>5</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="27">
         <v>24</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="27">
         <v>4</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>1</v>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="28"/>
       <c r="P17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AR17"/>
@@ -2259,31 +2415,31 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="27">
         <v>22</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="27">
         <v>5</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="27">
         <v>24</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="27">
         <v>4</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="25">
         <v>1</v>
       </c>
-      <c r="J18" s="32"/>
+      <c r="J18" s="28"/>
       <c r="P18" s="18"/>
       <c r="AK18" s="18"/>
       <c r="AR18"/>
@@ -2295,31 +2451,31 @@
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="27">
         <v>22</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="27">
         <v>5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="27">
         <v>24</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="27">
         <v>4</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="25">
         <v>1</v>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="28"/>
       <c r="P19" s="18"/>
       <c r="AK19" s="18"/>
       <c r="AR19"/>
@@ -2331,31 +2487,31 @@
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="27">
         <v>22</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="27">
         <v>5</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="27">
         <v>24</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="27">
         <v>4</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="25">
         <v>1</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="28"/>
       <c r="P20" s="18"/>
       <c r="AK20" s="18"/>
       <c r="AR20"/>
@@ -2367,31 +2523,31 @@
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="27">
         <v>22</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="27">
         <v>5</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="27">
         <v>24</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="27">
         <v>4</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="28"/>
       <c r="P21" s="18"/>
       <c r="AK21" s="18"/>
       <c r="AR21"/>
@@ -2403,31 +2559,31 @@
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="26">
         <v>3</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="27">
         <v>28</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="27">
         <v>1</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="27">
         <v>27</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="27">
         <v>1</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>1</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="28"/>
       <c r="P22" s="18"/>
       <c r="AK22" s="18"/>
       <c r="AR22"/>
@@ -2439,31 +2595,31 @@
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="27">
         <v>22</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="27">
         <v>5</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="27">
         <v>27</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="27">
         <v>1</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="25">
         <v>1</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="28"/>
       <c r="P23" s="18"/>
       <c r="AK23" s="18"/>
       <c r="AR23"/>
@@ -2475,31 +2631,31 @@
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="27">
         <v>7</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="27">
         <v>4</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="27">
         <v>4</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="25">
         <v>1</v>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="28"/>
       <c r="P24" s="18"/>
       <c r="AK24" s="18"/>
       <c r="AR24"/>
@@ -2511,31 +2667,31 @@
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="27">
         <v>22</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="27">
         <v>10</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="27">
         <v>12</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="27">
         <v>4</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="25">
         <v>1</v>
       </c>
-      <c r="J25" s="32"/>
+      <c r="J25" s="28"/>
       <c r="P25" s="18"/>
       <c r="AK25" s="18"/>
       <c r="AR25"/>
@@ -2547,31 +2703,31 @@
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="B26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="27">
         <v>22</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="27">
         <v>10</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="27">
         <v>12</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="27">
         <v>4</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="25">
         <v>1</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="28"/>
       <c r="P26" s="18"/>
       <c r="AK26" s="18"/>
       <c r="AR26"/>
@@ -2583,31 +2739,31 @@
       <c r="A27">
         <v>18</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="27">
         <v>22</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="27">
         <v>10</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="27">
         <v>12</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="27">
         <v>4</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="25">
         <v>1</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="28"/>
       <c r="P27" s="18"/>
       <c r="AK27" s="18"/>
       <c r="AR27"/>
@@ -2619,31 +2775,31 @@
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="31">
+      <c r="C28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="27">
         <v>22</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="27">
         <v>10</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="27">
         <v>12</v>
       </c>
-      <c r="H28" s="31">
-        <v>17</v>
-      </c>
-      <c r="I28" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="32"/>
+      <c r="H28" s="27">
+        <v>20</v>
+      </c>
+      <c r="I28" s="25">
+        <v>1</v>
+      </c>
+      <c r="J28" s="28"/>
       <c r="P28" s="18"/>
       <c r="AK28" s="18"/>
       <c r="AR28"/>
@@ -2655,31 +2811,31 @@
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="B29" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="27">
         <v>22</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="27">
         <v>10</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="27">
         <v>12</v>
       </c>
-      <c r="H29" s="31">
-        <v>17</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="32"/>
+      <c r="H29" s="27">
+        <v>34</v>
+      </c>
+      <c r="I29" s="25">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28"/>
       <c r="P29" s="18"/>
       <c r="AK29" s="18"/>
       <c r="AR29"/>
@@ -2687,95 +2843,143 @@
       <c r="BT29" s="16"/>
       <c r="CE29" s="16"/>
     </row>
-    <row r="30" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
         <v>21</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38">
+        <v>0</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="BC30" s="42"/>
+      <c r="BT30" s="42"/>
+      <c r="CE30" s="42"/>
+    </row>
+    <row r="31" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
+        <v>22</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="31">
-        <v>22</v>
-      </c>
-      <c r="F30" s="31">
-        <v>10</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29">
+      <c r="C31" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="38">
         <v>0</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="P30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AR30"/>
-      <c r="BC30" s="16"/>
-      <c r="BT30" s="16"/>
-      <c r="CE30" s="16"/>
-    </row>
-    <row r="31" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>22</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="32">
-        <v>22</v>
-      </c>
-      <c r="F31" s="32">
-        <v>10</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="P31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AR31"/>
-      <c r="BC31" s="16"/>
-      <c r="BT31" s="16"/>
-      <c r="CE31" s="16"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="BC31" s="42"/>
+      <c r="BT31" s="42"/>
+      <c r="CE31" s="42"/>
     </row>
     <row r="32" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="B32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="27">
         <v>22</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="27">
         <v>10</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="29">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="25">
         <v>0</v>
       </c>
-      <c r="J32" s="32"/>
+      <c r="J32" s="28"/>
       <c r="P32" s="18"/>
       <c r="AK32" s="18"/>
       <c r="AR32"/>
@@ -2787,31 +2991,31 @@
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="31">
+      <c r="B33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="27">
         <v>22</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="27">
         <v>10</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="27">
         <v>23</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="27">
         <v>5</v>
       </c>
-      <c r="I33" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="J33" s="32"/>
+      <c r="I33" s="25">
+        <v>1</v>
+      </c>
+      <c r="J33" s="28"/>
       <c r="P33" s="18"/>
       <c r="AK33" s="18"/>
       <c r="AR33"/>
@@ -2823,31 +3027,31 @@
       <c r="A34">
         <v>25</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="B34" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="27">
         <v>29</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="27">
         <v>3</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="27">
         <v>23</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="27">
         <v>9</v>
       </c>
-      <c r="I34" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="J34" s="32"/>
+      <c r="I34" s="25">
+        <v>1</v>
+      </c>
+      <c r="J34" s="28"/>
       <c r="P34" s="18"/>
       <c r="AK34" s="18"/>
       <c r="AR34"/>
@@ -2859,27 +3063,27 @@
       <c r="A35">
         <v>26</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="30" t="s">
+      <c r="B35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="27">
         <v>56</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="27">
         <v>5</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="29">
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="25">
         <v>0</v>
       </c>
-      <c r="J35" s="32"/>
+      <c r="J35" s="28"/>
       <c r="P35" s="18"/>
       <c r="AK35" s="18"/>
       <c r="AR35"/>
@@ -2891,27 +3095,31 @@
       <c r="A36">
         <v>27</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="27">
         <v>28</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="27">
         <v>7</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="29">
-        <v>0</v>
-      </c>
-      <c r="J36" s="32"/>
+      <c r="G36" s="27">
+        <v>28</v>
+      </c>
+      <c r="H36" s="27">
+        <v>9</v>
+      </c>
+      <c r="I36" s="25">
+        <v>1</v>
+      </c>
+      <c r="J36" s="28"/>
       <c r="P36" s="18"/>
       <c r="AK36" s="18"/>
       <c r="AR36"/>
@@ -2923,27 +3131,31 @@
       <c r="A37">
         <v>28</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="30" t="s">
+      <c r="B37" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="27">
         <v>28</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="27">
         <v>7</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="29">
-        <v>0</v>
-      </c>
-      <c r="J37" s="32"/>
+      <c r="G37" s="27">
+        <v>28</v>
+      </c>
+      <c r="H37" s="27">
+        <v>9</v>
+      </c>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="28"/>
       <c r="P37" s="18"/>
       <c r="AK37" s="18"/>
       <c r="AR37"/>
@@ -2951,63 +3163,87 @@
       <c r="BT37" s="16"/>
       <c r="CE37" s="16"/>
     </row>
-    <row r="38" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
         <v>29</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="31">
-        <v>35</v>
-      </c>
-      <c r="F38" s="31">
-        <v>5</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29">
+      <c r="B38" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38">
         <v>0</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="P38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AR38"/>
-      <c r="BC38" s="16"/>
-      <c r="BT38" s="16"/>
-      <c r="CE38" s="16"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="BC38" s="42"/>
+      <c r="BT38" s="42"/>
+      <c r="CE38" s="42"/>
     </row>
     <row r="39" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="32">
+      <c r="B39" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="28">
         <v>46</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="28">
         <v>5</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="29">
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="25">
         <v>0</v>
       </c>
-      <c r="J39" s="32"/>
+      <c r="J39" s="28"/>
       <c r="P39" s="18"/>
       <c r="AK39" s="18"/>
       <c r="AR39"/>
@@ -3019,27 +3255,27 @@
       <c r="A40">
         <v>31</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="32">
+      <c r="B40" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="28">
         <v>46</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="28">
         <v>5</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="29">
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="25">
         <v>0</v>
       </c>
-      <c r="J40" s="32"/>
+      <c r="J40" s="28"/>
       <c r="P40" s="18"/>
       <c r="AK40" s="18"/>
       <c r="AR40"/>
@@ -3051,27 +3287,27 @@
       <c r="A41">
         <v>32</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="32">
+      <c r="B41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="28">
         <v>40</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="28">
         <v>6</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="29">
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="25">
         <v>0</v>
       </c>
-      <c r="J41" s="32"/>
+      <c r="J41" s="28"/>
       <c r="P41" s="18"/>
       <c r="AK41" s="18"/>
       <c r="AR41"/>
@@ -3083,27 +3319,27 @@
       <c r="A42">
         <v>33</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="32">
+      <c r="B42" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="28">
         <v>51</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="28">
         <v>5</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="29">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="25">
         <v>0</v>
       </c>
-      <c r="J42" s="32"/>
+      <c r="J42" s="28"/>
       <c r="P42" s="18"/>
       <c r="AK42" s="18"/>
       <c r="AR42"/>
@@ -3115,28 +3351,32 @@
       <c r="A43">
         <v>34</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="B43" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="28">
         <f>35+5</f>
         <v>40</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="28">
         <v>6</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="29">
-        <v>0</v>
-      </c>
-      <c r="J43" s="32"/>
+      <c r="G43" s="28">
+        <v>40</v>
+      </c>
+      <c r="H43" s="28">
+        <v>6</v>
+      </c>
+      <c r="I43" s="25">
+        <v>1</v>
+      </c>
+      <c r="J43" s="28"/>
       <c r="P43" s="18"/>
       <c r="AK43" s="18"/>
       <c r="AR43"/>
@@ -3148,27 +3388,27 @@
       <c r="A44">
         <v>35</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="B44" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="28">
         <v>46</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="28">
         <v>5</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="29">
-        <v>0</v>
-      </c>
-      <c r="J44" s="32"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="28"/>
       <c r="P44" s="18"/>
       <c r="AK44" s="18"/>
       <c r="AR44"/>
@@ -3180,27 +3420,31 @@
       <c r="A45">
         <v>36</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="B45" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="28">
         <v>40</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="28">
         <v>6</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="29">
-        <v>0</v>
-      </c>
-      <c r="J45" s="32"/>
+      <c r="G45" s="28">
+        <v>40</v>
+      </c>
+      <c r="H45" s="28">
+        <v>6</v>
+      </c>
+      <c r="I45" s="25">
+        <v>1</v>
+      </c>
+      <c r="J45" s="28"/>
       <c r="P45" s="18"/>
       <c r="AK45" s="18"/>
       <c r="AR45"/>
@@ -3212,28 +3456,32 @@
       <c r="A46">
         <v>37</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="32">
+      <c r="B46" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="28">
         <f>46+5</f>
         <v>51</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="28">
         <v>5</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="29">
-        <v>0</v>
-      </c>
-      <c r="J46" s="32"/>
+      <c r="G46" s="28">
+        <v>42</v>
+      </c>
+      <c r="H46" s="28">
+        <v>4</v>
+      </c>
+      <c r="I46" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="28"/>
       <c r="P46" s="18"/>
       <c r="AK46" s="18"/>
       <c r="AR46"/>
@@ -3245,27 +3493,31 @@
       <c r="A47">
         <v>38</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="B47" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="28">
         <v>51</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="28">
         <v>5</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="29">
-        <v>0</v>
-      </c>
-      <c r="J47" s="32"/>
+      <c r="G47" s="28">
+        <v>42</v>
+      </c>
+      <c r="H47" s="28">
+        <v>4</v>
+      </c>
+      <c r="I47" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="28"/>
       <c r="P47" s="18"/>
       <c r="AK47" s="18"/>
       <c r="AR47"/>
@@ -3277,27 +3529,31 @@
       <c r="A48">
         <v>39</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="B48" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="28">
         <v>46</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="28">
         <v>5</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="29">
-        <v>0</v>
-      </c>
-      <c r="J48" s="32"/>
+      <c r="G48" s="28">
+        <v>38</v>
+      </c>
+      <c r="H48" s="28">
+        <v>2</v>
+      </c>
+      <c r="I48" s="25">
+        <v>1</v>
+      </c>
+      <c r="J48" s="28"/>
       <c r="P48" s="18"/>
       <c r="AK48" s="18"/>
       <c r="AR48"/>
@@ -3309,27 +3565,27 @@
       <c r="A49">
         <v>40</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="30">
+      <c r="B49" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="26">
         <v>27</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="D49" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="28">
         <v>56</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="28">
         <v>5</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="29">
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="25">
         <v>0</v>
       </c>
-      <c r="J49" s="32"/>
+      <c r="J49" s="28"/>
       <c r="P49" s="18"/>
       <c r="AK49" s="18"/>
       <c r="AR49"/>
@@ -3341,27 +3597,27 @@
       <c r="A50">
         <v>41</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="30">
+      <c r="B50" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="26">
         <v>27</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="D50" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="28">
         <v>56</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="28">
         <v>5</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="29">
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="25">
         <v>0</v>
       </c>
-      <c r="J50" s="32"/>
+      <c r="J50" s="28"/>
       <c r="P50" s="18"/>
       <c r="AK50" s="18"/>
       <c r="AR50"/>
@@ -3373,27 +3629,31 @@
       <c r="A51">
         <v>42</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="30" t="s">
+      <c r="B51" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="28">
         <v>61</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="28">
         <v>7</v>
       </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="29">
-        <v>0</v>
-      </c>
-      <c r="J51" s="32"/>
+      <c r="G51" s="28">
+        <v>44</v>
+      </c>
+      <c r="H51" s="28">
+        <v>2</v>
+      </c>
+      <c r="I51" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="28"/>
       <c r="P51" s="18"/>
       <c r="AK51" s="18"/>
       <c r="AR51"/>
@@ -3405,27 +3665,27 @@
       <c r="A52">
         <v>43</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="B52" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="28">
         <v>61</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="28">
         <v>7</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="29">
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="25">
         <v>0</v>
       </c>
-      <c r="J52" s="32"/>
+      <c r="J52" s="28"/>
       <c r="P52" s="18"/>
       <c r="AK52" s="18"/>
       <c r="AR52"/>
@@ -3437,27 +3697,27 @@
       <c r="A53">
         <v>44</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="30" t="s">
+      <c r="B53" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="28">
         <v>61</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="28">
         <v>7</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="29">
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="25">
         <v>0</v>
       </c>
-      <c r="J53" s="32"/>
+      <c r="J53" s="28"/>
       <c r="P53" s="18"/>
       <c r="AK53" s="18"/>
       <c r="AR53"/>
@@ -3469,27 +3729,27 @@
       <c r="A54">
         <v>45</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="30" t="s">
+      <c r="B54" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="28">
         <v>61</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="28">
         <v>7</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="29">
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="25">
         <v>0</v>
       </c>
-      <c r="J54" s="32"/>
+      <c r="J54" s="28"/>
       <c r="P54" s="18"/>
       <c r="AK54" s="18"/>
       <c r="AR54"/>
@@ -3501,27 +3761,31 @@
       <c r="A55">
         <v>46</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="30" t="s">
+      <c r="B55" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="28">
         <v>68</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="28">
         <v>4</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="29">
-        <v>0</v>
-      </c>
-      <c r="J55" s="32"/>
+      <c r="G55" s="28">
+        <v>44</v>
+      </c>
+      <c r="H55" s="28">
+        <v>2</v>
+      </c>
+      <c r="I55" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="28"/>
       <c r="P55" s="18"/>
       <c r="AK55" s="18"/>
       <c r="AR55"/>
@@ -3533,27 +3797,31 @@
       <c r="A56">
         <v>47</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="30" t="s">
+      <c r="B56" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="28">
         <v>68</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="28">
         <v>4</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="29">
-        <v>0</v>
-      </c>
-      <c r="J56" s="32"/>
+      <c r="G56" s="28">
+        <v>44</v>
+      </c>
+      <c r="H56" s="28">
+        <v>2</v>
+      </c>
+      <c r="I56" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J56" s="28"/>
       <c r="P56" s="18"/>
       <c r="AK56" s="18"/>
       <c r="AR56"/>
@@ -3565,27 +3833,27 @@
       <c r="A57">
         <v>48</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="30" t="s">
+      <c r="B57" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="28">
         <v>72</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="28">
         <v>1</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="29">
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="25">
         <v>0</v>
       </c>
-      <c r="J57" s="32"/>
+      <c r="J57" s="28"/>
       <c r="P57" s="18"/>
       <c r="AK57" s="18"/>
       <c r="AR57"/>
@@ -3597,27 +3865,27 @@
       <c r="A58">
         <v>49</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="30" t="s">
+      <c r="B58" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="28">
         <v>73</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="28">
         <v>1</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="29">
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="25">
         <v>0</v>
       </c>
-      <c r="J58" s="32"/>
+      <c r="J58" s="28"/>
       <c r="P58" s="18"/>
       <c r="AK58" s="18"/>
       <c r="AR58"/>
@@ -3686,7 +3954,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="38" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3737,13 +4005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -3761,13 +4029,13 @@
       <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -4125,13 +4393,13 @@
       <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -4149,13 +4417,13 @@
       <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4513,22 +4781,22 @@
       <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
@@ -4646,22 +4914,22 @@
       <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -1001,18 +1001,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1039,6 +1027,18 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1510,7 +1510,7 @@
   <dimension ref="A2:CG59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1530,26 +1530,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:85" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:85" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1589,14 +1589,14 @@
       <c r="AR3"/>
     </row>
     <row r="4" spans="1:85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -1897,17 +1897,17 @@
       <c r="CG8" s="1"/>
     </row>
     <row r="9" spans="1:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="3">
         <v>21</v>
       </c>
@@ -2843,117 +2843,117 @@
       <c r="BT29" s="16"/>
       <c r="CE29" s="16"/>
     </row>
-    <row r="30" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+    <row r="30" spans="1:83" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
         <v>21</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38">
+      <c r="D30" s="31"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34">
         <v>0</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="40"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="40"/>
-      <c r="AO30" s="40"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="BC30" s="42"/>
-      <c r="BT30" s="42"/>
-      <c r="CE30" s="42"/>
-    </row>
-    <row r="31" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36">
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="BC30" s="38"/>
+      <c r="BT30" s="38"/>
+      <c r="CE30" s="38"/>
+    </row>
+    <row r="31" spans="1:83" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
         <v>22</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38">
+      <c r="D31" s="31"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="34">
         <v>0</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="BC31" s="42"/>
-      <c r="BT31" s="42"/>
-      <c r="CE31" s="42"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="BC31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="CE31" s="38"/>
     </row>
     <row r="32" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -3078,10 +3078,14 @@
       <c r="F35" s="27">
         <v>5</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="27">
+        <v>42</v>
+      </c>
+      <c r="H35" s="27">
+        <v>4</v>
+      </c>
       <c r="I35" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="28"/>
       <c r="P35" s="18"/>
@@ -3163,61 +3167,61 @@
       <c r="BT37" s="16"/>
       <c r="CE37" s="16"/>
     </row>
-    <row r="38" spans="1:83" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:83" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
         <v>29</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38">
+      <c r="D38" s="31"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34">
         <v>0</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="40"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="BC38" s="42"/>
-      <c r="BT38" s="42"/>
-      <c r="CE38" s="42"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="BC38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="CE38" s="38"/>
     </row>
     <row r="39" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3580,10 +3584,14 @@
       <c r="F49" s="28">
         <v>5</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="28">
+        <v>37</v>
+      </c>
+      <c r="H49" s="28">
+        <v>9</v>
+      </c>
       <c r="I49" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J49" s="28"/>
       <c r="P49" s="18"/>
@@ -3612,10 +3620,14 @@
       <c r="F50" s="28">
         <v>5</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="28">
+        <v>37</v>
+      </c>
+      <c r="H50" s="28">
+        <v>9</v>
+      </c>
       <c r="I50" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J50" s="28"/>
       <c r="P50" s="18"/>
@@ -4005,13 +4017,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -4029,13 +4041,13 @@
       <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -4393,13 +4405,13 @@
       <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -4417,13 +4429,13 @@
       <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -4781,22 +4793,22 @@
       <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
@@ -4914,22 +4926,22 @@
       <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
     </row>
     <row r="54" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="440" windowWidth="37700" windowHeight="21160"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t>Plan</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Cheng</t>
   </si>
   <si>
-    <t>Mate</t>
-  </si>
-  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Cheng &amp; Kevin</t>
   </si>
   <si>
-    <t>Kevin / Adriano</t>
-  </si>
-  <si>
     <t>File mining functionality</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
   </si>
   <si>
     <t>40,41</t>
-  </si>
-  <si>
-    <t>Kevin / Mate</t>
   </si>
   <si>
     <r>
@@ -525,6 +516,18 @@
   </si>
   <si>
     <t>Wayback Install</t>
+  </si>
+  <si>
+    <t>Adriano / Mate</t>
+  </si>
+  <si>
+    <t>Mate / Adriano</t>
+  </si>
+  <si>
+    <t>Mate / Cheng</t>
+  </si>
+  <si>
+    <t>Cheng, Adriano, Mate</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,6 +1042,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1510,7 +1516,7 @@
   <dimension ref="A2:CG59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1524,7 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
     <col min="5" max="7" width="7.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" style="7" customWidth="1"/>
@@ -1642,7 +1648,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
@@ -2205,7 +2211,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>31</v>
@@ -2311,7 +2317,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>28</v>
@@ -2347,7 +2353,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>28</v>
@@ -2383,7 +2389,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>28</v>
@@ -2419,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>28</v>
@@ -2455,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>28</v>
@@ -2491,7 +2497,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>28</v>
@@ -2527,7 +2533,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>28</v>
@@ -2599,7 +2605,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>28</v>
@@ -2635,7 +2641,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>48</v>
@@ -2668,10 +2674,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>36</v>
@@ -2704,10 +2710,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>49</v>
@@ -2740,13 +2746,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E27" s="27">
         <v>22</v>
@@ -2776,13 +2782,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E28" s="27">
         <v>22</v>
@@ -2812,13 +2818,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E29" s="27">
         <v>22</v>
@@ -2830,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="27">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I29" s="25">
         <v>1</v>
@@ -2848,10 +2854,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="33"/>
@@ -2904,10 +2910,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="35"/>
@@ -2956,27 +2962,21 @@
       <c r="CE31" s="38"/>
     </row>
     <row r="32" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="32">
         <v>23</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="27">
-        <v>22</v>
-      </c>
-      <c r="F32" s="27">
-        <v>10</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="25">
+      <c r="B32" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34">
         <v>0</v>
       </c>
       <c r="J32" s="28"/>
@@ -2992,13 +2992,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="27">
         <v>22</v>
@@ -3028,10 +3028,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>49</v>
@@ -3064,10 +3064,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>36</v>
@@ -3082,10 +3082,10 @@
         <v>42</v>
       </c>
       <c r="H35" s="27">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I35" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" s="28"/>
       <c r="P35" s="18"/>
@@ -3100,13 +3100,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E36" s="27">
         <v>28</v>
@@ -3136,10 +3136,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>28</v>
@@ -3172,10 +3172,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="33"/>
@@ -3228,13 +3228,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E39" s="28">
         <v>46</v>
@@ -3242,10 +3242,14 @@
       <c r="F39" s="28">
         <v>5</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="G39" s="28">
+        <v>46</v>
+      </c>
+      <c r="H39" s="28">
+        <v>17</v>
+      </c>
       <c r="I39" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J39" s="28"/>
       <c r="P39" s="18"/>
@@ -3260,13 +3264,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E40" s="28">
         <v>46</v>
@@ -3274,10 +3278,14 @@
       <c r="F40" s="28">
         <v>5</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="G40" s="28">
+        <v>46</v>
+      </c>
+      <c r="H40" s="28">
+        <v>17</v>
+      </c>
       <c r="I40" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J40" s="28"/>
       <c r="P40" s="18"/>
@@ -3292,13 +3300,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="28">
         <v>40</v>
@@ -3306,10 +3314,14 @@
       <c r="F41" s="28">
         <v>6</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="G41" s="28">
+        <v>46</v>
+      </c>
+      <c r="H41" s="28">
+        <v>17</v>
+      </c>
       <c r="I41" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J41" s="28"/>
       <c r="P41" s="18"/>
@@ -3324,13 +3336,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E42" s="28">
         <v>51</v>
@@ -3338,10 +3350,14 @@
       <c r="F42" s="28">
         <v>5</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="G42" s="1">
+        <v>60</v>
+      </c>
+      <c r="H42" s="28">
+        <v>3</v>
+      </c>
       <c r="I42" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J42" s="28"/>
       <c r="P42" s="18"/>
@@ -3356,13 +3372,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E43" s="28">
         <f>35+5</f>
@@ -3393,13 +3409,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E44" s="28">
         <v>46</v>
@@ -3407,10 +3423,14 @@
       <c r="F44" s="28">
         <v>5</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="28">
+        <v>50</v>
+      </c>
+      <c r="H44" s="28">
+        <v>10</v>
+      </c>
       <c r="I44" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J44" s="28"/>
       <c r="P44" s="18"/>
@@ -3425,13 +3445,13 @@
         <v>36</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E45" s="28">
         <v>40</v>
@@ -3461,13 +3481,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E46" s="28">
         <f>46+5</f>
@@ -3480,10 +3500,10 @@
         <v>42</v>
       </c>
       <c r="H46" s="28">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I46" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J46" s="28"/>
       <c r="P46" s="18"/>
@@ -3498,13 +3518,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E47" s="28">
         <v>51</v>
@@ -3516,10 +3536,10 @@
         <v>42</v>
       </c>
       <c r="H47" s="28">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I47" s="25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J47" s="28"/>
       <c r="P47" s="18"/>
@@ -3534,13 +3554,13 @@
         <v>39</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E48" s="28">
         <v>46</v>
@@ -3570,13 +3590,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="26">
         <v>27</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E49" s="28">
         <v>56</v>
@@ -3588,10 +3608,11 @@
         <v>37</v>
       </c>
       <c r="H49" s="28">
-        <v>9</v>
+        <f>17+9</f>
+        <v>26</v>
       </c>
       <c r="I49" s="25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J49" s="28"/>
       <c r="P49" s="18"/>
@@ -3606,13 +3627,13 @@
         <v>41</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="26">
         <v>27</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E50" s="28">
         <v>56</v>
@@ -3624,10 +3645,10 @@
         <v>37</v>
       </c>
       <c r="H50" s="28">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I50" s="25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J50" s="28"/>
       <c r="P50" s="18"/>
@@ -3642,13 +3663,13 @@
         <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E51" s="28">
         <v>61</v>
@@ -3663,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J51" s="28"/>
       <c r="P51" s="18"/>
@@ -3678,13 +3699,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="E52" s="28">
         <v>61</v>
@@ -3692,10 +3713,14 @@
       <c r="F52" s="28">
         <v>7</v>
       </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="28">
+        <v>61</v>
+      </c>
+      <c r="H52" s="28">
+        <v>2</v>
+      </c>
       <c r="I52" s="25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J52" s="28"/>
       <c r="P52" s="18"/>
@@ -3706,30 +3731,24 @@
       <c r="CE52" s="16"/>
     </row>
     <row r="53" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="32">
         <v>44</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="28">
-        <v>61</v>
-      </c>
-      <c r="F53" s="28">
-        <v>7</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="25">
+      <c r="B53" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="34">
         <v>0</v>
       </c>
-      <c r="J53" s="28"/>
+      <c r="J53" s="35"/>
       <c r="P53" s="18"/>
       <c r="AK53" s="18"/>
       <c r="AR53"/>
@@ -3738,30 +3757,32 @@
       <c r="CE53" s="16"/>
     </row>
     <row r="54" spans="1:83" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="44">
         <v>45</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>50</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D54" s="26"/>
       <c r="E54" s="28">
         <v>61</v>
       </c>
       <c r="F54" s="28">
         <v>7</v>
       </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="G54" s="28">
+        <v>61</v>
+      </c>
+      <c r="H54" s="28">
+        <v>2</v>
+      </c>
       <c r="I54" s="25">
-        <v>0</v>
-      </c>
-      <c r="J54" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="35"/>
       <c r="P54" s="18"/>
       <c r="AK54" s="18"/>
       <c r="AR54"/>
@@ -3774,7 +3795,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>28</v>
@@ -3810,7 +3831,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>28</v>
@@ -3846,7 +3867,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>28</v>
@@ -3878,7 +3899,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>28</v>

--- a/_doc/WARC Portal.xlsx
+++ b/_doc/WARC Portal.xlsx
@@ -1515,8 +1515,8 @@
   </sheetPr>
   <dimension ref="A2:CG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
